--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C95DE-3C02-D44C-858B-116790BF900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2DD1A-A618-8442-A476-FED49186512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="960" windowWidth="29920" windowHeight="22480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9620" yWindow="960" windowWidth="29920" windowHeight="22480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -3294,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9208,7 +9208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4EBD-5A58-E84D-8BC0-6E81A77F994D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2DD1A-A618-8442-A476-FED49186512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF83F75-9C6C-544F-8F1B-BD7A00B97E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="960" windowWidth="29920" windowHeight="22480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
-    <sheet name="Marsupials" sheetId="3" r:id="rId2"/>
-    <sheet name="Removed" sheetId="5" r:id="rId3"/>
+    <sheet name="NOT IN ALIGN" sheetId="6" r:id="rId2"/>
+    <sheet name="Marsupials" sheetId="3" r:id="rId3"/>
+    <sheet name="Removed" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="559">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1688,13 +1689,37 @@
   </si>
   <si>
     <t>NK_Strepsirhine1</t>
+  </si>
+  <si>
+    <t>XM_036323965</t>
+  </si>
+  <si>
+    <t>XM_036324441</t>
+  </si>
+  <si>
+    <t>XM_036345646</t>
+  </si>
+  <si>
+    <t>XM_036346724</t>
+  </si>
+  <si>
+    <t>XM_036346728</t>
+  </si>
+  <si>
+    <t>XM_036346847</t>
+  </si>
+  <si>
+    <t>XM_036346877</t>
+  </si>
+  <si>
+    <t>Myotis myotis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1771,6 +1796,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2362,7 +2401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2395,11 +2434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2414,6 +2449,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -3292,13 +3335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
@@ -3315,52 +3358,52 @@
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3391,11 +3434,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3424,11 +3467,11 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3457,20 +3500,20 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>519</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>509</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3492,20 +3535,20 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>519</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="20" t="s">
         <v>509</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -3527,20 +3570,20 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>519</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>509</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3566,100 +3609,98 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>519</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>518</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>504</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>55</v>
@@ -3668,129 +3709,131 @@
         <v>113</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D11" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>129</v>
+        <v>386</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3803,7 +3846,7 @@
         <v>502</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>371</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>59</v>
@@ -3812,22 +3855,22 @@
         <v>58</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3840,7 +3883,7 @@
         <v>502</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>59</v>
@@ -3849,1161 +3892,1159 @@
         <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>518</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>524</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="E20" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>525</v>
+      <c r="H20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="E21" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="E22" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>526</v>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="E23" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>527</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="I24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>527</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="H25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>527</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="H26" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="H27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>527</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="H28" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="H29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>527</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="12" t="s">
+      <c r="F30" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="H30" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="F31" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>527</v>
+      <c r="H31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="E32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="H36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>362</v>
+        <v>469</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>382</v>
+        <v>107</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>472</v>
+        <v>246</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>384</v>
+        <v>104</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>471</v>
+        <v>302</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>384</v>
+        <v>120</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>488</v>
+        <v>303</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>469</v>
+        <v>302</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>485</v>
+        <v>120</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>486</v>
+        <v>303</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>103</v>
+        <v>386</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B47" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -5016,7 +5057,7 @@
         <v>514</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>55</v>
@@ -5025,10 +5066,10 @@
         <v>61</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -5036,24 +5077,24 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>532</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="13" t="s">
         <v>514</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>55</v>
@@ -5062,10 +5103,10 @@
         <v>61</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -5073,24 +5114,24 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>532</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="13" t="s">
         <v>514</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>55</v>
@@ -5099,33 +5140,35 @@
         <v>61</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C50" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>532</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="13" t="s">
         <v>514</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>55</v>
@@ -5134,240 +5177,236 @@
         <v>61</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K51" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>239</v>
+        <v>449</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>60</v>
+        <v>492</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>54</v>
+        <v>493</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>532</v>
+        <v>2</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>514</v>
+      <c r="E53" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>532</v>
+        <v>408</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>514</v>
+      <c r="E54" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>532</v>
+        <v>422</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>514</v>
+      <c r="E55" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>75</v>
+        <v>494</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B57" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -5380,7 +5419,7 @@
         <v>502</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>59</v>
@@ -5389,20 +5428,20 @@
         <v>58</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B58" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -5415,7 +5454,7 @@
         <v>502</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>59</v>
@@ -5424,20 +5463,20 @@
         <v>58</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -5450,7 +5489,7 @@
         <v>502</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>59</v>
@@ -5459,22 +5498,20 @@
         <v>58</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -5487,7 +5524,7 @@
         <v>502</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>443</v>
+        <v>152</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>59</v>
@@ -5496,20 +5533,20 @@
         <v>58</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -5522,7 +5559,7 @@
         <v>502</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>453</v>
+        <v>233</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>59</v>
@@ -5531,20 +5568,24 @@
         <v>58</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K61" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B62" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -5557,7 +5598,7 @@
         <v>502</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>59</v>
@@ -5569,17 +5610,17 @@
         <v>82</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B63" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5592,7 +5633,7 @@
         <v>502</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>59</v>
@@ -5604,17 +5645,17 @@
         <v>82</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -5627,7 +5668,7 @@
         <v>502</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>367</v>
+        <v>452</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>59</v>
@@ -5639,17 +5680,17 @@
         <v>82</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B65" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -5662,7 +5703,7 @@
         <v>502</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>454</v>
+        <v>168</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>59</v>
@@ -5671,20 +5712,20 @@
         <v>58</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>391</v>
+        <v>165</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B66" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -5697,7 +5738,7 @@
         <v>502</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>59</v>
@@ -5706,20 +5747,20 @@
         <v>58</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B67" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -5732,7 +5773,7 @@
         <v>502</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>59</v>
@@ -5741,20 +5782,20 @@
         <v>58</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>162</v>
+        <v>387</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -5767,7 +5808,7 @@
         <v>502</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>233</v>
+        <v>445</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>59</v>
@@ -5776,24 +5817,20 @@
         <v>58</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B69" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -5806,7 +5843,7 @@
         <v>502</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>59</v>
@@ -5815,20 +5852,20 @@
         <v>58</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B70" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -5841,7 +5878,7 @@
         <v>502</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>59</v>
@@ -5850,20 +5887,20 @@
         <v>58</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B71" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -5876,7 +5913,7 @@
         <v>502</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>59</v>
@@ -5885,20 +5922,20 @@
         <v>58</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B72" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -5911,7 +5948,7 @@
         <v>502</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>59</v>
@@ -5923,17 +5960,17 @@
         <v>82</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B73" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -5946,7 +5983,7 @@
         <v>502</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>59</v>
@@ -5958,17 +5995,17 @@
         <v>82</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B74" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -5981,7 +6018,7 @@
         <v>502</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>59</v>
@@ -5990,20 +6027,20 @@
         <v>58</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B75" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -6016,7 +6053,7 @@
         <v>502</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>59</v>
@@ -6025,20 +6062,20 @@
         <v>58</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B76" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -6051,7 +6088,7 @@
         <v>502</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>59</v>
@@ -6060,20 +6097,20 @@
         <v>58</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B77" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -6086,7 +6123,7 @@
         <v>502</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>168</v>
+        <v>447</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>59</v>
@@ -6095,348 +6132,356 @@
         <v>58</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>165</v>
+        <v>484</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K78" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>374</v>
+        <v>155</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K80" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B81" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>445</v>
+        <v>301</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>482</v>
+        <v>292</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B82" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>451</v>
+        <v>290</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B83" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>451</v>
+        <v>290</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B84" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>451</v>
+        <v>290</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B85" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>517</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>455</v>
+        <v>237</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K86" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>446</v>
+        <v>235</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>59</v>
@@ -6445,1306 +6490,1312 @@
         <v>58</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K87" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B89" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>491</v>
+        <v>159</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>447</v>
+        <v>221</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K91" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>447</v>
+        <v>242</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>484</v>
+        <v>72</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K93" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B95" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M95" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B97" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>392</v>
+        <v>109</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K97" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>536</v>
+        <v>306</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>543</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>498</v>
+        <v>516</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>514</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>392</v>
+        <v>60</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>536</v>
+        <v>314</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>543</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>498</v>
+        <v>516</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>514</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B100" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K100" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L100" s="2"/>
-      <c r="M100" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B101" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M102" s="2">
+        <v>21278349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M103" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K108" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B109" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>223</v>
+        <v>443</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>223</v>
+        <v>468</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B111" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K111" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="L111" s="2"/>
-      <c r="M111" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B112" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B113" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>223</v>
+        <v>364</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B114" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>240</v>
+        <v>364</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>543</v>
+        <v>414</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E115" s="15" t="s">
-        <v>514</v>
+      <c r="E115" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>54</v>
+        <v>483</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>543</v>
+        <v>463</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E116" s="15" t="s">
-        <v>514</v>
+      <c r="E116" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>543</v>
+        <v>425</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E117" s="15" t="s">
-        <v>514</v>
+      <c r="E117" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>312</v>
+        <v>447</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>543</v>
+        <v>466</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>514</v>
+      <c r="E118" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B119" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>368</v>
+        <v>168</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>385</v>
+        <v>165</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B120" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>224</v>
+        <v>455</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K121" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="L121" s="2"/>
-      <c r="M121" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K122" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L122" s="2"/>
-      <c r="M122" s="2">
-        <v>21278349</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B123" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -7752,205 +7803,207 @@
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K124" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L124" s="2"/>
-      <c r="M124" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B125" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K125" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B126" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B127" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B129" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>59</v>
@@ -7959,35 +8012,35 @@
         <v>58</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B130" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>59</v>
@@ -7996,886 +8049,265 @@
         <v>58</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B131" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B132" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>468</v>
+        <v>558</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B133" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>231</v>
+        <v>558</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B134" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>450</v>
+        <v>558</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>474</v>
+        <v>54</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B135" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B136" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B137" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>516</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>451</v>
+        <v>558</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M168">
-    <sortCondition ref="B2:B168"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M144">
+    <sortCondition ref="B2:B144"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8889,6 +8321,932 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65A9957-E7B6-5D45-85EF-3555E70D6322}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M17">
+    <sortCondition ref="B2:B17"/>
+    <sortCondition ref="C2:C17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -9204,7 +9562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4EBD-5A58-E84D-8BC0-6E81A77F994D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -9265,703 +9623,703 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17" t="s">
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="B14" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="B17" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="17" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="B18" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="B19" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="B20" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="B22" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF83F75-9C6C-544F-8F1B-BD7A00B97E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3817DD8D-42CD-2A4C-9218-7223CE7E3AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="551">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -158,9 +158,6 @@
     <t>XP_014443201.2</t>
   </si>
   <si>
-    <t>XP_003802206.1</t>
-  </si>
-  <si>
     <t>XP_003802186.1</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>XM_017967394</t>
   </si>
   <si>
-    <t>XM_003802158</t>
-  </si>
-  <si>
     <t>XM_008057580</t>
   </si>
   <si>
@@ -1034,9 +1028,6 @@
     <t>XM_006901124</t>
   </si>
   <si>
-    <t>XM_007491889</t>
-  </si>
-  <si>
     <t>XM_008161658</t>
   </si>
   <si>
@@ -1136,9 +1127,6 @@
     <t>Elephantulus edwardii</t>
   </si>
   <si>
-    <t>Monodelphis domestica</t>
-  </si>
-  <si>
     <t>Chlorocebus sabaeus</t>
   </si>
   <si>
@@ -1229,15 +1217,6 @@
     <t>Elephantulus</t>
   </si>
   <si>
-    <t>Didelphimorphia</t>
-  </si>
-  <si>
-    <t>Didelphidae</t>
-  </si>
-  <si>
-    <t>Monodelphis</t>
-  </si>
-  <si>
     <t>Dasyuromorphia</t>
   </si>
   <si>
@@ -1686,9 +1665,6 @@
   </si>
   <si>
     <t>NK_Scandentia1</t>
-  </si>
-  <si>
-    <t>NK_Strepsirhine1</t>
   </si>
   <si>
     <t>XM_036323965</t>
@@ -3335,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C62" sqref="A1:M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3360,108 +3336,110 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>269</v>
-      </c>
       <c r="M1" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>508</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>508</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3469,102 +3447,112 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>262</v>
+        <v>508</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>281</v>
+      <c r="A5" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>519</v>
+        <v>508</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>509</v>
+        <v>511</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3572,1179 +3560,1177 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>172</v>
+      <c r="A8" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>519</v>
+        <v>508</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="20"/>
+        <v>511</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>389</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>387</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>182</v>
+      <c r="A16" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>524</v>
+        <v>508</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>253</v>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="L20" s="21"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="K22" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="L22" s="21"/>
-      <c r="M22" s="20" t="s">
-        <v>315</v>
-      </c>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I23" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="L23" s="21"/>
-      <c r="M23" s="20" t="s">
-        <v>315</v>
-      </c>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L24" s="21"/>
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>144</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L25" s="21"/>
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="20" t="s">
+      <c r="G30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="H31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>94</v>
+        <v>478</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>382</v>
+        <v>106</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>472</v>
+        <v>300</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>489</v>
+        <v>301</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>464</v>
+        <v>351</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>471</v>
+        <v>300</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>488</v>
+        <v>301</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="M37" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>469</v>
+        <v>287</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>485</v>
+        <v>59</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4752,289 +4738,289 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>532</v>
+        <v>508</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>532</v>
+        <v>508</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>532</v>
+        <v>508</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>289</v>
+        <v>442</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>60</v>
+        <v>485</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -5042,219 +5028,211 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>327</v>
+        <v>2</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>532</v>
+        <v>508</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>239</v>
+        <v>436</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>532</v>
+        <v>508</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>225</v>
+        <v>446</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>532</v>
+        <v>508</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>225</v>
+        <v>446</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>449</v>
+        <v>151</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>492</v>
+        <v>56</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>493</v>
+        <v>161</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -5262,71 +5240,73 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -5334,34 +5314,34 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -5369,34 +5349,34 @@
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>453</v>
+        <v>167</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>494</v>
+        <v>164</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -5404,34 +5384,34 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>367</v>
+        <v>444</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -5439,34 +5419,34 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -5474,34 +5454,34 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>152</v>
+        <v>448</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>162</v>
+        <v>474</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -5509,34 +5489,34 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>152</v>
+        <v>439</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>162</v>
+        <v>474</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -5544,73 +5524,69 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>233</v>
+        <v>437</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -5618,34 +5594,34 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -5653,69 +5629,71 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>435</v>
+        <v>207</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>452</v>
+        <v>226</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K64" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -5723,69 +5701,71 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>428</v>
+        <v>186</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K66" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>433</v>
+        <v>298</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -5793,34 +5773,34 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>445</v>
+        <v>288</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>482</v>
+        <v>290</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -5828,34 +5808,34 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>413</v>
+        <v>291</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5863,34 +5843,34 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>414</v>
+        <v>278</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>451</v>
+        <v>156</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -5898,139 +5878,147 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>429</v>
+        <v>169</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>451</v>
+        <v>235</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="K71" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>418</v>
+        <v>185</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>455</v>
+        <v>233</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K72" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>417</v>
+        <v>211</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>446</v>
+        <v>220</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>491</v>
+        <v>158</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -6038,104 +6026,110 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>427</v>
+        <v>204</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>424</v>
+        <v>4</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>447</v>
+        <v>219</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K76" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>534</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>447</v>
+        <v>240</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>484</v>
+        <v>71</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -6143,71 +6137,71 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -6215,71 +6209,71 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -6287,69 +6281,71 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>392</v>
+        <v>108</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K82" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C83" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>536</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="J83" s="2" t="s">
-        <v>292</v>
+        <v>53</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -6357,219 +6353,217 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C84" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>536</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K85" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>537</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
+      <c r="M87" s="2">
+        <v>21278349</v>
+      </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>213</v>
+        <v>335</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -6577,182 +6571,180 @@
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K92" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>223</v>
+        <v>436</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -6760,71 +6752,71 @@
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K95" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="L95" s="2"/>
-      <c r="M95" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M95" s="2"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>286</v>
+        <v>451</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -6832,106 +6824,108 @@
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>223</v>
+        <v>361</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>543</v>
+        <v>508</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>543</v>
+        <v>508</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>312</v>
+        <v>444</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -6939,182 +6933,174 @@
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>177</v>
+        <v>456</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>224</v>
+        <v>463</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>224</v>
+        <v>440</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>119</v>
+        <v>477</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M101" s="2"/>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>318</v>
+        <v>459</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>312</v>
+        <v>466</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="2">
-        <v>21278349</v>
-      </c>
+      <c r="M102" s="2"/>
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M103" s="2"/>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>154</v>
+        <v>448</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>167</v>
+        <v>474</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -7122,215 +7108,219 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>321</v>
+        <v>5</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K105" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="M107" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>408</v>
+        <v>188</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>443</v>
+        <v>156</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K109" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>468</v>
+        <v>156</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -7338,71 +7328,71 @@
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>458</v>
+        <v>543</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J112" s="2" t="s">
-        <v>474</v>
+        <v>53</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -7410,108 +7400,104 @@
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>364</v>
+        <v>550</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="J113" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>352</v>
+        <v>545</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>364</v>
+        <v>550</v>
       </c>
       <c r="G114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="J114" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>414</v>
+        <v>546</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>451</v>
+        <v>550</v>
       </c>
       <c r="G115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="J115" s="2" t="s">
-        <v>483</v>
+        <v>53</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -7519,34 +7505,34 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="J116" s="2" t="s">
-        <v>487</v>
+        <v>53</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -7554,34 +7540,34 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>425</v>
+        <v>548</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J117" s="2" t="s">
-        <v>484</v>
+        <v>53</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -7589,34 +7575,34 @@
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>473</v>
+        <v>550</v>
       </c>
       <c r="G118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J118" s="2" t="s">
-        <v>490</v>
+        <v>53</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -7624,690 +7610,42 @@
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>168</v>
+        <v>465</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>164</v>
+        <v>380</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>165</v>
+        <v>482</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-    </row>
-    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-    </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-    </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-    </row>
-    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-    </row>
-    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-    </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-    </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-    </row>
-    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-    </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-    </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-    </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M144">
-    <sortCondition ref="B2:B144"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M125">
+    <sortCondition ref="B2:B125"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8322,10 +7660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65A9957-E7B6-5D45-85EF-3555E70D6322}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8334,6 +7672,7 @@
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
@@ -8342,256 +7681,252 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>476</v>
+        <v>290</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="8"/>
+      <c r="M2" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>175</v>
+        <v>422</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>444</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>178</v>
+        <v>421</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>383</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>204</v>
+        <v>420</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>447</v>
+        <v>151</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>484</v>
+        <v>161</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -8599,174 +7934,174 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>449</v>
+        <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>492</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>493</v>
+        <v>162</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -8774,34 +8109,34 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -8809,34 +8144,34 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -8844,34 +8179,34 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -8879,141 +8214,139 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>446</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>163</v>
+        <v>486</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="8" t="s">
-        <v>315</v>
-      </c>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -9021,226 +8354,699 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>309</v>
+        <v>432</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>240</v>
+        <v>438</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>335</v>
+      <c r="A22" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>439</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>516</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>445</v>
+        <v>229</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>516</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M17">
-    <sortCondition ref="B2:B17"/>
-    <sortCondition ref="C2:C17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M38">
+    <sortCondition ref="B2:B38"/>
+    <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9251,235 +9057,235 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
       <c r="L2" s="5"/>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="2"/>
       <c r="L3" s="5"/>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
       <c r="L4" s="5"/>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
@@ -9490,43 +9296,43 @@
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J33" s="7">
         <v>2</v>
@@ -9537,16 +9343,16 @@
         <v>2</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -9583,106 +9389,106 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>33</v>
@@ -9692,102 +9498,102 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -9795,135 +9601,135 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="J10" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -9931,30 +9737,30 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>36</v>
@@ -9964,129 +9770,129 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -10094,30 +9900,30 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -10125,162 +9931,162 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>16</v>
@@ -10290,30 +10096,30 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>22</v>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3817DD8D-42CD-2A4C-9218-7223CE7E3AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC24B7-FD1B-444E-97E3-23F90B464855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20780" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -3313,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C62" sqref="A1:M119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3377,170 +3377,170 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>512</v>
+      <c r="C2" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E2" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>502</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>376</v>
+        <v>114</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>512</v>
+      <c r="C3" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>502</v>
+        <v>509</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>378</v>
+        <v>101</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>512</v>
+      <c r="C4" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>502</v>
+        <v>509</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>171</v>
+      <c r="A5" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>512</v>
+      <c r="C5" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="20"/>
+        <v>509</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>497</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>54</v>
@@ -3549,27 +3549,31 @@
         <v>112</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>511</v>
+        <v>533</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>497</v>
@@ -3589,784 +3593,766 @@
       <c r="J7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>516</v>
+      <c r="C10" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>516</v>
+      <c r="C11" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>511</v>
+        <v>537</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>313</v>
+      <c r="M14" s="2">
+        <v>21278349</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>318</v>
+      <c r="A16" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>520</v>
+      <c r="C16" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="20"/>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>306</v>
+      <c r="A17" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>520</v>
+      <c r="C17" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
+        <v>509</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>315</v>
+      <c r="A18" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>520</v>
+      <c r="C18" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>359</v>
+        <v>156</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4374,108 +4360,106 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>321</v>
+        <v>190</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>359</v>
+        <v>234</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>378</v>
+        <v>69</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>522</v>
+      <c r="C30" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>502</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>457</v>
+        <v>322</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>523</v>
+      <c r="C31" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>464</v>
+        <v>359</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -4483,396 +4467,408 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>523</v>
+      <c r="C32" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>478</v>
+        <v>123</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>195</v>
+      <c r="A33" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>524</v>
+      <c r="C33" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>325</v>
+        <v>206</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>507</v>
+      <c r="C42" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>237</v>
+        <v>369</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4882,501 +4878,515 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>525</v>
+      <c r="C43" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>507</v>
+        <v>511</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G44" s="2" t="s">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H47" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="21"/>
+      <c r="M48" s="20"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L50" s="21"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="21"/>
+      <c r="M51" s="20"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="21"/>
+      <c r="M52" s="20"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="I53" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" s="21"/>
+      <c r="M53" s="20"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="H54" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>413</v>
+        <v>183</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>445</v>
+        <v>215</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -5384,34 +5394,34 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>444</v>
+        <v>359</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -5419,69 +5429,73 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>407</v>
+        <v>210</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>444</v>
+        <v>241</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -5489,34 +5503,34 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -5524,34 +5538,34 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -5559,248 +5573,254 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>417</v>
+        <v>195</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>440</v>
+        <v>243</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="K62" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>440</v>
+        <v>365</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>477</v>
+        <v>102</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>388</v>
+        <v>106</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>388</v>
+        <v>106</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -5808,400 +5828,396 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="M70" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="M74" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>533</v>
+      <c r="C75" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>497</v>
+        <v>510</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>533</v>
+      <c r="C76" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>497</v>
+        <v>510</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="M76" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>534</v>
+      <c r="C77" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>191</v>
+        <v>543</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>280</v>
+        <v>544</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -6209,71 +6225,69 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>289</v>
+        <v>550</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>289</v>
+        <v>550</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -6281,59 +6295,57 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>175</v>
+        <v>547</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>304</v>
+        <v>548</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>536</v>
+      <c r="C83" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E83" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>507</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>303</v>
+        <v>550</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>54</v>
@@ -6353,22 +6365,22 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>536</v>
+      <c r="C84" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E84" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>507</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>54</v>
@@ -6377,10 +6389,10 @@
         <v>60</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>384</v>
+        <v>53</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -6388,182 +6400,178 @@
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>310</v>
+        <v>442</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>75</v>
+        <v>485</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2">
-        <v>21278349</v>
-      </c>
+      <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>335</v>
+        <v>2</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K88" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -6571,59 +6579,57 @@
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>231</v>
+        <v>446</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>58</v>
@@ -6632,35 +6638,33 @@
         <v>57</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>58</v>
@@ -6669,35 +6673,33 @@
         <v>57</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>58</v>
@@ -6706,10 +6708,10 @@
         <v>57</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -6717,22 +6719,22 @@
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>405</v>
+        <v>248</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>461</v>
+        <v>231</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>58</v>
@@ -6744,30 +6746,34 @@
         <v>56</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K94" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="M94" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>212</v>
+        <v>412</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>229</v>
+        <v>445</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>58</v>
@@ -6781,30 +6787,28 @@
       <c r="J95" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>58</v>
@@ -6816,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -6824,22 +6828,22 @@
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>58</v>
@@ -6848,35 +6852,33 @@
         <v>57</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>58</v>
@@ -6888,13 +6890,11 @@
         <v>56</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
@@ -6904,10 +6904,10 @@
         <v>508</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>495</v>
@@ -6933,22 +6933,22 @@
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>58</v>
@@ -6957,10 +6957,10 @@
         <v>57</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -6968,22 +6968,22 @@
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>58</v>
@@ -6995,7 +6995,7 @@
         <v>81</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -7003,22 +7003,22 @@
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>58</v>
@@ -7027,10 +7027,10 @@
         <v>57</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -7038,22 +7038,22 @@
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>167</v>
+        <v>440</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>58</v>
@@ -7062,10 +7062,10 @@
         <v>57</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -7073,22 +7073,22 @@
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>495</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>58</v>
@@ -7100,7 +7100,7 @@
         <v>81</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -7108,219 +7108,215 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>5</v>
+        <v>451</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>216</v>
+        <v>443</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
       <c r="M107" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>188</v>
+        <v>407</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>156</v>
+        <v>466</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -7328,106 +7324,106 @@
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>190</v>
+        <v>455</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>543</v>
+        <v>207</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>550</v>
+        <v>226</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K112" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>544</v>
+        <v>285</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>550</v>
+        <v>226</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -7435,69 +7431,71 @@
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>550</v>
+        <v>154</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K114" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>546</v>
+        <v>298</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>550</v>
+        <v>299</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -7505,34 +7503,34 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>547</v>
+        <v>274</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>550</v>
+        <v>288</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -7540,34 +7538,34 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>548</v>
+        <v>291</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>550</v>
+        <v>288</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -7575,34 +7573,34 @@
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>549</v>
+        <v>278</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>550</v>
+        <v>156</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -7610,42 +7608,45 @@
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>458</v>
+        <v>189</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>465</v>
+        <v>218</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K119" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M125">
-    <sortCondition ref="B2:B125"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M119">
+    <sortCondition ref="B2:B119"/>
+    <sortCondition ref="C2:C119"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7662,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65A9957-E7B6-5D45-85EF-3555E70D6322}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC24B7-FD1B-444E-97E3-23F90B464855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EB415-4D00-9F4B-AE21-300390248355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20780" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="550">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1632,9 +1632,6 @@
   </si>
   <si>
     <t>NK_Carlito1</t>
-  </si>
-  <si>
-    <t>NK_Carnivore1</t>
   </si>
   <si>
     <t>NK_Carnivore2</t>
@@ -3314,7 +3311,7 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C23" sqref="A1:M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>508</v>
@@ -3463,7 +3460,7 @@
         <v>509</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>220</v>
@@ -3481,7 +3478,7 @@
         <v>110</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>143</v>
@@ -3490,7 +3487,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>508</v>
@@ -3502,10 +3499,10 @@
         <v>509</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>357</v>
+        <v>219</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>54</v>
@@ -3514,18 +3511,20 @@
         <v>112</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>508</v>
@@ -3537,98 +3536,94 @@
         <v>509</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>534</v>
+      <c r="C8" s="13" t="s">
+        <v>535</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>506</v>
+      <c r="E8" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3636,59 +3631,57 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>535</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>498</v>
+      <c r="E9" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>536</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>507</v>
+      <c r="E10" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>54</v>
@@ -3697,33 +3690,35 @@
         <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>536</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>507</v>
+      <c r="E11" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>54</v>
@@ -3732,24 +3727,26 @@
         <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>509</v>
@@ -3758,7 +3755,7 @@
         <v>499</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>54</v>
@@ -3767,20 +3764,20 @@
         <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>21278349</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>508</v>
@@ -3792,22 +3789,22 @@
         <v>509</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3817,81 +3814,81 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>316</v>
+        <v>178</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>21278349</v>
-      </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>508</v>
@@ -3903,32 +3900,30 @@
         <v>509</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>224</v>
+        <v>463</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>399</v>
+        <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>508</v>
@@ -3940,139 +3935,143 @@
         <v>509</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>401</v>
+        <v>326</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>405</v>
+        <v>188</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>461</v>
+        <v>156</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>508</v>
@@ -4084,22 +4083,22 @@
         <v>509</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>463</v>
+        <v>156</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4107,69 +4106,71 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>418</v>
+        <v>190</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>440</v>
+        <v>234</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>411</v>
+        <v>279</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>527</v>
+      <c r="C23" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4177,182 +4178,182 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>541</v>
+      <c r="C24" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>491</v>
+        <v>511</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>216</v>
+        <v>359</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>541</v>
+      <c r="C25" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>491</v>
+        <v>511</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>326</v>
+      <c r="A26" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>541</v>
+      <c r="C26" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4360,564 +4361,566 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>512</v>
+      <c r="C30" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>502</v>
+      <c r="E30" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>376</v>
+        <v>97</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>512</v>
+      <c r="C31" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>502</v>
+      <c r="E31" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>512</v>
+      <c r="C32" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>502</v>
+      <c r="E32" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>171</v>
+      <c r="A33" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>512</v>
+      <c r="C33" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="M33" s="20"/>
+      <c r="E33" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>385</v>
+        <v>90</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>511</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>129</v>
+        <v>388</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>2</v>
+      <c r="A37" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>516</v>
+      <c r="C37" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="E37" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>333</v>
+      <c r="A38" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>516</v>
+      <c r="C38" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="E38" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>173</v>
+      <c r="A39" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>516</v>
+      <c r="C39" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>249</v>
+      <c r="E39" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>181</v>
+      <c r="A40" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>517</v>
+      <c r="C40" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="E40" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="H40" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="20" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>206</v>
+      <c r="A41" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>518</v>
+      <c r="C41" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="K41" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="21"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>345</v>
+      <c r="A42" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="E42" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>200</v>
+      <c r="A43" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>519</v>
+      <c r="C43" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="E43" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L43" s="21"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>508</v>
@@ -4925,34 +4928,36 @@
       <c r="C44" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="13" t="s">
         <v>511</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>493</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="L44" s="21"/>
       <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>508</v>
@@ -4967,27 +4972,29 @@
         <v>493</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="L45" s="21"/>
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>508</v>
@@ -5002,29 +5009,29 @@
         <v>493</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="K46" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L46" s="21"/>
-      <c r="M46" s="20" t="s">
-        <v>313</v>
-      </c>
+      <c r="M46" s="20"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>314</v>
+        <v>449</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>508</v>
@@ -5032,361 +5039,353 @@
       <c r="C47" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="13" t="s">
         <v>511</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>493</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="20" t="s">
-        <v>313</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>180</v>
+      <c r="A48" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>520</v>
+      <c r="C48" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G48" s="20" t="s">
+      <c r="E48" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K48" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="20"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="20" t="s">
+      <c r="H52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K49" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="20"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="20" t="s">
+      <c r="I53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L50" s="21"/>
-      <c r="M50" s="20"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="21"/>
-      <c r="M51" s="20"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="21"/>
-      <c r="M52" s="20"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="20"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
+      <c r="H54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>183</v>
+        <v>454</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>215</v>
+        <v>462</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>93</v>
+        <v>478</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>320</v>
+        <v>458</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>379</v>
+        <v>482</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -5394,178 +5393,182 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K57" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>457</v>
+        <v>196</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>464</v>
+        <v>244</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>380</v>
+        <v>103</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K59" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>454</v>
+        <v>191</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>462</v>
+        <v>221</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>478</v>
+        <v>108</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K60" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>458</v>
+        <v>280</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>465</v>
+        <v>221</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>482</v>
+        <v>107</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -5573,7 +5576,7 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>508</v>
@@ -5588,7 +5591,7 @@
         <v>506</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>54</v>
@@ -5600,17 +5603,17 @@
         <v>106</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>508</v>
@@ -5625,7 +5628,7 @@
         <v>506</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>54</v>
@@ -5634,121 +5637,119 @@
         <v>73</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>191</v>
+        <v>351</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -5756,71 +5757,69 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -5828,7 +5827,7 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>508</v>
@@ -5843,7 +5842,7 @@
         <v>507</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>54</v>
@@ -5852,10 +5851,10 @@
         <v>60</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5865,22 +5864,22 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="13" t="s">
         <v>525</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="13" t="s">
         <v>507</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>54</v>
@@ -5889,10 +5888,10 @@
         <v>60</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -5902,22 +5901,22 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="13" t="s">
         <v>525</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="13" t="s">
         <v>507</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>54</v>
@@ -5926,33 +5925,35 @@
         <v>60</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="13" t="s">
         <v>525</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="13" t="s">
         <v>507</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>54</v>
@@ -5961,18 +5962,20 @@
         <v>60</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="M72" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>283</v>
+        <v>542</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>508</v>
@@ -5987,7 +5990,7 @@
         <v>507</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>287</v>
+        <v>549</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>54</v>
@@ -5999,7 +6002,7 @@
         <v>59</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -6007,7 +6010,7 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>325</v>
+        <v>543</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>508</v>
@@ -6022,7 +6025,7 @@
         <v>507</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>237</v>
+        <v>549</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>54</v>
@@ -6038,28 +6041,26 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>348</v>
+        <v>544</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="2" t="s">
         <v>507</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>237</v>
+        <v>549</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>54</v>
@@ -6075,28 +6076,26 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>337</v>
+        <v>545</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="2" t="s">
         <v>507</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>223</v>
+        <v>549</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>54</v>
@@ -6105,35 +6104,33 @@
         <v>60</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="2" t="s">
         <v>507</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>223</v>
+        <v>549</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>54</v>
@@ -6142,20 +6139,18 @@
         <v>60</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>508</v>
@@ -6170,7 +6165,7 @@
         <v>507</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>54</v>
@@ -6190,7 +6185,7 @@
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>508</v>
@@ -6205,7 +6200,7 @@
         <v>507</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>54</v>
@@ -6225,69 +6220,71 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>545</v>
+        <v>194</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>550</v>
+        <v>224</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K80" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>546</v>
+        <v>319</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>550</v>
+        <v>153</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -6295,69 +6292,71 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>547</v>
+        <v>184</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>550</v>
+        <v>228</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K82" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>548</v>
+        <v>401</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>550</v>
+        <v>436</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -6365,34 +6364,34 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>549</v>
+        <v>405</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -6400,71 +6399,69 @@
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>194</v>
+        <v>418</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>224</v>
+        <v>440</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>510</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>166</v>
+        <v>474</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EB415-4D00-9F4B-AE21-300390248355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96903A7D-1205-4649-A7C5-BA3D30E5115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="940" windowWidth="40000" windowHeight="26060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="500" windowWidth="40000" windowHeight="26060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="558">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1686,13 +1686,37 @@
   </si>
   <si>
     <t>Myotis myotis</t>
+  </si>
+  <si>
+    <t>XM_003802158</t>
+  </si>
+  <si>
+    <t>XM_008582050</t>
+  </si>
+  <si>
+    <t>Galeopterus variegatus</t>
+  </si>
+  <si>
+    <t>Dermoptera</t>
+  </si>
+  <si>
+    <t>Cynocephalidae</t>
+  </si>
+  <si>
+    <t>Galeopterus</t>
+  </si>
+  <si>
+    <t>Placental1_Strepsirhine1</t>
+  </si>
+  <si>
+    <t>Placental2_Strepsirhine1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1783,8 +1807,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1833,6 +1877,24 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2374,7 +2436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2430,6 +2492,28 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -3308,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="A1:M119"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E132" sqref="A1:M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3894,10 +3978,10 @@
         <v>508</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>495</v>
@@ -7639,6 +7723,855 @@
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J120" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J121" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J122" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J123" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J124" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J125" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J126" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="23"/>
+    </row>
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J127" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J128" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+    </row>
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J129" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+    </row>
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J130" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+    </row>
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J131" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+    </row>
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J132" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+    </row>
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="J133" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="24"/>
+    </row>
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I134" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J134" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K134" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="L134" s="27"/>
+      <c r="M134" s="25"/>
+    </row>
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I135" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J135" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K135" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+    </row>
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J136" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K136" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+    </row>
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I137" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="24"/>
+    </row>
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I138" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J138" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K138" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L138" s="23"/>
+      <c r="M138" s="23"/>
+    </row>
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I139" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K139" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L139" s="23"/>
+      <c r="M139" s="23"/>
+    </row>
+    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G140" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H140" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J140" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="28"/>
+    </row>
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J141" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="23"/>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="I142" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="J142" s="23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="G143" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H143" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I143" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J143" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="28"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M119">

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE74B501-4405-F94C-97D8-58A5AB4F54E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F7B19-F6BB-574A-A567-A4D658577A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="500" windowWidth="26780" windowHeight="26820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="500" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="553">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -3377,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D112" sqref="A1:M142"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>320</v>
+        <v>209</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>507</v>
@@ -5187,66 +5187,70 @@
         <v>501</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>507</v>
@@ -5261,7 +5265,7 @@
         <v>504</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>53</v>
@@ -5270,22 +5274,18 @@
         <v>111</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>316</v>
+        <v>456</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>507</v>
@@ -5300,7 +5300,7 @@
         <v>504</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>356</v>
+        <v>463</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>53</v>
@@ -5309,10 +5309,10 @@
         <v>111</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>507</v>
@@ -5335,7 +5335,7 @@
         <v>504</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>53</v>
@@ -5344,10 +5344,10 @@
         <v>111</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>507</v>
@@ -5370,7 +5370,7 @@
         <v>504</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>53</v>
@@ -5379,10 +5379,10 @@
         <v>111</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -5390,42 +5390,44 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>464</v>
+        <v>242</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K55" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>194</v>
+        <v>330</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>507</v>
@@ -5440,7 +5442,7 @@
         <v>505</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>53</v>
@@ -5449,20 +5451,20 @@
         <v>72</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>507</v>
@@ -5477,7 +5479,7 @@
         <v>505</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>53</v>
@@ -5491,15 +5493,15 @@
       <c r="J57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>507</v>
@@ -5514,29 +5516,29 @@
         <v>505</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>507</v>
@@ -5565,15 +5567,13 @@
       <c r="J59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>507</v>
@@ -5588,27 +5588,29 @@
         <v>505</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>106</v>
+        <v>388</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>507</v>
@@ -5639,48 +5641,48 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>507</v>
@@ -5717,7 +5719,7 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>507</v>
@@ -5732,7 +5734,7 @@
         <v>506</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>53</v>
@@ -5741,20 +5743,18 @@
         <v>59</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>507</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>507</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>507</v>
@@ -5839,7 +5839,7 @@
         <v>506</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>53</v>
@@ -5851,26 +5851,28 @@
         <v>58</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="13" t="s">
         <v>524</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="13" t="s">
         <v>506</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -5896,7 +5898,7 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>507</v>
@@ -5911,7 +5913,7 @@
         <v>506</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>53</v>
@@ -5920,10 +5922,10 @@
         <v>59</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5933,7 +5935,7 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>507</v>
@@ -5970,22 +5972,22 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>337</v>
+        <v>531</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="2" t="s">
         <v>524</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="2" t="s">
         <v>506</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>222</v>
+        <v>538</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>53</v>
@@ -5994,20 +5996,18 @@
         <v>59</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>507</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>507</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>507</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>507</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>507</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>507</v>
@@ -6217,42 +6217,44 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>537</v>
+        <v>193</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>538</v>
+        <v>223</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>193</v>
+        <v>318</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>507</v>
@@ -6267,7 +6269,7 @@
         <v>499</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>53</v>
@@ -6276,55 +6278,55 @@
         <v>87</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K80" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>183</v>
+        <v>400</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>507</v>
@@ -6339,7 +6341,7 @@
         <v>494</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>227</v>
+        <v>435</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>57</v>
@@ -6351,17 +6353,15 @@
         <v>96</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>507</v>
@@ -6376,7 +6376,7 @@
         <v>494</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>57</v>
@@ -6385,10 +6385,10 @@
         <v>56</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>507</v>
@@ -6411,7 +6411,7 @@
         <v>494</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>57</v>
@@ -6420,10 +6420,10 @@
         <v>56</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>160</v>
+        <v>476</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>507</v>
@@ -6446,7 +6446,7 @@
         <v>494</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>57</v>
@@ -6458,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>507</v>
@@ -6481,7 +6481,7 @@
         <v>494</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>57</v>
@@ -6490,10 +6490,10 @@
         <v>56</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>507</v>
@@ -6516,7 +6516,7 @@
         <v>494</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>57</v>
@@ -6525,18 +6525,20 @@
         <v>56</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>484</v>
+        <v>96</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K86" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>507</v>
@@ -6551,7 +6553,7 @@
         <v>494</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>149</v>
+        <v>435</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>57</v>
@@ -6565,15 +6567,13 @@
       <c r="J87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>507</v>
@@ -6588,7 +6588,7 @@
         <v>494</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>57</v>
@@ -6597,10 +6597,10 @@
         <v>56</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>95</v>
+        <v>486</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>507</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>507</v>
@@ -6658,7 +6658,7 @@
         <v>494</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>57</v>
@@ -6670,7 +6670,7 @@
         <v>80</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>507</v>
@@ -6693,7 +6693,7 @@
         <v>494</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>446</v>
+        <v>150</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>57</v>
@@ -6702,10 +6702,10 @@
         <v>56</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>386</v>
+        <v>160</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>507</v>
@@ -6728,7 +6728,7 @@
         <v>494</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>57</v>
@@ -6740,15 +6740,19 @@
         <v>55</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K92" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="M92" s="2" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>507</v>
@@ -6763,7 +6767,7 @@
         <v>494</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>57</v>
@@ -6772,22 +6776,18 @@
         <v>56</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2" t="s">
-        <v>396</v>
-      </c>
+      <c r="M93" s="2"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>507</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>507</v>
@@ -6837,7 +6837,7 @@
         <v>494</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>444</v>
+        <v>166</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>57</v>
@@ -6846,10 +6846,10 @@
         <v>56</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>507</v>
@@ -6872,7 +6872,7 @@
         <v>494</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>57</v>
@@ -6881,10 +6881,10 @@
         <v>56</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>163</v>
+        <v>475</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>507</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>507</v>
@@ -6942,7 +6942,7 @@
         <v>494</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>57</v>
@@ -6951,10 +6951,10 @@
         <v>56</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>507</v>
@@ -6977,7 +6977,7 @@
         <v>494</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>57</v>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>507</v>
@@ -7012,7 +7012,7 @@
         <v>494</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>57</v>
@@ -7021,10 +7021,10 @@
         <v>56</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>507</v>
@@ -7047,7 +7047,7 @@
         <v>494</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>57</v>
@@ -7056,10 +7056,10 @@
         <v>56</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>507</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>417</v>
+        <v>211</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>507</v>
@@ -7117,7 +7117,7 @@
         <v>494</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>439</v>
+        <v>228</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>57</v>
@@ -7129,15 +7129,17 @@
         <v>80</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="K103" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>211</v>
+        <v>450</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>507</v>
@@ -7152,7 +7154,7 @@
         <v>494</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>57</v>
@@ -7164,17 +7166,15 @@
         <v>80</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>507</v>
@@ -7189,7 +7189,7 @@
         <v>494</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>57</v>
@@ -7198,18 +7198,20 @@
         <v>56</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>507</v>
@@ -7246,7 +7248,7 @@
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>507</v>
@@ -7261,7 +7263,7 @@
         <v>494</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>360</v>
+        <v>443</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>57</v>
@@ -7273,17 +7275,15 @@
         <v>55</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>507</v>
@@ -7298,7 +7298,7 @@
         <v>494</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>57</v>
@@ -7307,10 +7307,10 @@
         <v>56</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>507</v>
@@ -7333,7 +7333,7 @@
         <v>494</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>465</v>
+        <v>166</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>57</v>
@@ -7342,10 +7342,10 @@
         <v>56</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>482</v>
+        <v>163</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -7353,42 +7353,44 @@
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>454</v>
+        <v>206</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K110" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>507</v>
@@ -7417,50 +7419,50 @@
       <c r="J111" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K112" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>507</v>
@@ -7475,7 +7477,7 @@
         <v>490</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>57</v>
@@ -7484,20 +7486,18 @@
         <v>62</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>507</v>
@@ -7512,7 +7512,7 @@
         <v>490</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>57</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>507</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>507</v>
@@ -7582,7 +7582,7 @@
         <v>490</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>287</v>
+        <v>155</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>57</v>
@@ -7591,10 +7591,10 @@
         <v>62</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>507</v>
@@ -7617,7 +7617,7 @@
         <v>490</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>57</v>
@@ -7626,92 +7626,92 @@
         <v>62</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K117" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="A118" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C118" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F118" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="G118" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
+      <c r="I118" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="J118" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="G119" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I119" s="23" t="s">
-        <v>387</v>
+        <v>55</v>
       </c>
       <c r="J119" s="23" t="s">
-        <v>289</v>
+        <v>475</v>
       </c>
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
-      <c r="M119" s="23" t="s">
-        <v>312</v>
-      </c>
+      <c r="M119" s="23"/>
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>507</v>
@@ -7726,7 +7726,7 @@
         <v>494</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>443</v>
+        <v>166</v>
       </c>
       <c r="G120" s="23" t="s">
         <v>57</v>
@@ -7735,10 +7735,10 @@
         <v>56</v>
       </c>
       <c r="I120" s="23" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="J120" s="23" t="s">
-        <v>475</v>
+        <v>163</v>
       </c>
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="22" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>507</v>
@@ -7761,7 +7761,7 @@
         <v>494</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="G121" s="23" t="s">
         <v>57</v>
@@ -7770,10 +7770,10 @@
         <v>56</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="J121" s="23" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B122" s="23" t="s">
         <v>507</v>
@@ -7796,7 +7796,7 @@
         <v>494</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="G122" s="23" t="s">
         <v>57</v>
@@ -7805,10 +7805,10 @@
         <v>56</v>
       </c>
       <c r="I122" s="23" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J122" s="23" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B123" s="23" t="s">
         <v>507</v>
@@ -7831,7 +7831,7 @@
         <v>494</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>436</v>
+        <v>150</v>
       </c>
       <c r="G123" s="23" t="s">
         <v>57</v>
@@ -7840,10 +7840,10 @@
         <v>56</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="J123" s="23" t="s">
-        <v>483</v>
+        <v>160</v>
       </c>
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B124" s="23" t="s">
         <v>507</v>
@@ -7866,7 +7866,7 @@
         <v>494</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>150</v>
+        <v>444</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>57</v>
@@ -7875,10 +7875,10 @@
         <v>56</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J124" s="23" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>507</v>
@@ -7901,7 +7901,7 @@
         <v>494</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="G125" s="23" t="s">
         <v>57</v>
@@ -7913,7 +7913,7 @@
         <v>80</v>
       </c>
       <c r="J125" s="23" t="s">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
@@ -7921,22 +7921,22 @@
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B126" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E126" s="23" t="s">
         <v>494</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="G126" s="23" t="s">
         <v>57</v>
@@ -7945,10 +7945,10 @@
         <v>56</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J126" s="23" t="s">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
@@ -7956,22 +7956,22 @@
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="22" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>494</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="G127" s="23" t="s">
         <v>57</v>
@@ -7980,10 +7980,10 @@
         <v>56</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J127" s="23" t="s">
-        <v>161</v>
+        <v>473</v>
       </c>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B128" s="23" t="s">
         <v>507</v>
@@ -8006,7 +8006,7 @@
         <v>494</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G128" s="23" t="s">
         <v>57</v>
@@ -8018,7 +8018,7 @@
         <v>80</v>
       </c>
       <c r="J128" s="23" t="s">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
@@ -8026,16 +8026,16 @@
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="22" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>494</v>
@@ -8061,22 +8061,22 @@
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B130" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>494</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G130" s="23" t="s">
         <v>57</v>
@@ -8088,7 +8088,7 @@
         <v>80</v>
       </c>
       <c r="J130" s="23" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
@@ -8096,22 +8096,22 @@
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B131" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G131" s="23" t="s">
         <v>57</v>
@@ -8120,142 +8120,144 @@
         <v>56</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="J131" s="23" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
-      <c r="M131" s="23"/>
+      <c r="M131" s="24"/>
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
-        <v>433</v>
+        <v>207</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="E132" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="G132" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H132" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="J132" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="24"/>
+      <c r="C132" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I132" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J132" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K132" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="L132" s="27"/>
+      <c r="M132" s="25"/>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D133" s="26" t="s">
+      <c r="C133" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D133" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="E133" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G133" s="25" t="s">
+      <c r="E133" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G133" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H133" s="25" t="s">
+      <c r="H133" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J133" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K133" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="L133" s="27"/>
-      <c r="M133" s="25"/>
+      <c r="I133" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J133" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K133" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>510</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G134" s="23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J134" s="23" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K134" s="23" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>510</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>232</v>
+        <v>434</v>
       </c>
       <c r="G135" s="23" t="s">
         <v>57</v>
@@ -8264,20 +8266,18 @@
         <v>56</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="J135" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K135" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="K135" s="23"/>
       <c r="L135" s="23"/>
-      <c r="M135" s="23"/>
+      <c r="M135" s="24"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
-        <v>451</v>
+        <v>171</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>507</v>
@@ -8292,7 +8292,7 @@
         <v>491</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>434</v>
+        <v>229</v>
       </c>
       <c r="G136" s="23" t="s">
         <v>57</v>
@@ -8301,230 +8301,195 @@
         <v>56</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="J136" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="K136" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="K136" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="L136" s="23"/>
-      <c r="M136" s="24"/>
+      <c r="M136" s="23"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>510</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G137" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H137" s="23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J137" s="23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K137" s="23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B138" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B138" s="29" t="s">
         <v>507</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E138" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="F138" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G138" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G138" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H138" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I138" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J138" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K138" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L138" s="23"/>
-      <c r="M138" s="23"/>
-    </row>
-    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="H138" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J138" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="28"/>
+    </row>
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="B139" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E139" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="E139" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="F139" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G139" s="29" t="s">
+      <c r="F139" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G139" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H139" s="29" t="s">
+      <c r="H139" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I139" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J139" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="28"/>
+      <c r="I139" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K139" s="23"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="23"/>
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>229</v>
+        <v>541</v>
       </c>
       <c r="G140" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H140" s="23" t="s">
-        <v>56</v>
+        <v>542</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>76</v>
+        <v>543</v>
       </c>
       <c r="J140" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K140" s="23"/>
-      <c r="L140" s="23"/>
-      <c r="M140" s="23"/>
+        <v>544</v>
+      </c>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>549</v>
+        <v>424</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>515</v>
       </c>
       <c r="D141" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="E141" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="F141" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="G141" s="23" t="s">
+      <c r="E141" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="G141" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H141" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="I141" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="J141" s="23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B142" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="C142" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="F142" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="G142" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H142" s="29" t="s">
+      <c r="H141" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I142" s="29" t="s">
+      <c r="I141" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="J142" s="29" t="s">
+      <c r="J141" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="28"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M118">
-    <sortCondition ref="B2:B118"/>
-    <sortCondition ref="C2:C118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M117">
+    <sortCondition ref="B2:B117"/>
+    <sortCondition ref="C2:C117"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10249,24 +10214,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4EBD-5A58-E84D-8BC0-6E81A77F994D}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -10274,40 +10242,43 @@
         <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>327</v>
       </c>
@@ -10316,31 +10287,32 @@
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>302</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>186</v>
       </c>
@@ -10348,34 +10320,35 @@
         <v>507</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>241</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>353</v>
       </c>
@@ -10383,34 +10356,35 @@
         <v>507</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>506</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>221</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="15"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>354</v>
       </c>
@@ -10418,34 +10392,35 @@
         <v>507</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>221</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>301</v>
       </c>
@@ -10453,32 +10428,33 @@
         <v>507</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>299</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>351</v>
       </c>
@@ -10486,34 +10462,35 @@
         <v>507</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
         <v>506</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>221</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>352</v>
       </c>
@@ -10521,34 +10498,35 @@
         <v>507</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
         <v>506</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>221</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>197</v>
       </c>
@@ -10557,33 +10535,34 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>214</v>
-      </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
         <v>214</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>251</v>
       </c>
@@ -10592,29 +10571,30 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>252</v>
-      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
         <v>252</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>200</v>
       </c>
@@ -10623,31 +10603,32 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>224</v>
-      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
         <v>224</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>328</v>
       </c>
@@ -10656,31 +10637,32 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>361</v>
-      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
         <v>361</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>342</v>
       </c>
@@ -10689,31 +10671,32 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
         <v>154</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="J13" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="K13" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>343</v>
       </c>
@@ -10722,31 +10705,32 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>449</v>
       </c>
@@ -10755,29 +10739,30 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>226</v>
-      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
         <v>226</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>322</v>
       </c>
@@ -10786,29 +10771,30 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>237</v>
-      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
         <v>237</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>323</v>
       </c>
@@ -10817,31 +10803,32 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
-        <v>237</v>
-      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
         <v>237</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="17"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="17"/>
+      <c r="N17" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>192</v>
       </c>
@@ -10850,31 +10837,32 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>236</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
         <v>236</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="J18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="K18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="L18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>345</v>
       </c>
@@ -10883,31 +10871,32 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>236</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
         <v>236</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>346</v>
       </c>
@@ -10916,31 +10905,32 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
-        <v>236</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
         <v>236</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>191</v>
       </c>
@@ -10949,31 +10939,32 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>222</v>
-      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
         <v>222</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="L21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>196</v>
       </c>
@@ -10982,29 +10973,66 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>239</v>
-      </c>
+      <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
         <v>239</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="L22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="15"/>
       <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F7B19-F6BB-574A-A567-A4D658577A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B678DB22-0AF7-064C-B5B0-CE679C2FC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="500" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="500" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="553">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1547,9 +1547,6 @@
     <t>Xenarthra1</t>
   </si>
   <si>
-    <t>Perissodatyl1</t>
-  </si>
-  <si>
     <t>Carnivore1</t>
   </si>
   <si>
@@ -1589,9 +1586,6 @@
     <t>Placental1_Manis1</t>
   </si>
   <si>
-    <t>Placental1_Perissodatyl1</t>
-  </si>
-  <si>
     <t>Placental1_Rodent1</t>
   </si>
   <si>
@@ -1619,9 +1613,6 @@
     <t>Placental2_Haplorhine1</t>
   </si>
   <si>
-    <t>Placental2_Perissodatyl1</t>
-  </si>
-  <si>
     <t>Placental2_Rodent1</t>
   </si>
   <si>
@@ -1695,6 +1686,15 @@
   </si>
   <si>
     <t>Placental2_Carlito1</t>
+  </si>
+  <si>
+    <t>Placental1_Perissodactyl1</t>
+  </si>
+  <si>
+    <t>Perissodactyl1</t>
+  </si>
+  <si>
+    <t>Placental2_Perissodactyl1</t>
   </si>
 </sst>
 </file>
@@ -3377,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H127" sqref="A1:M142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3446,13 +3446,13 @@
         <v>168</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>501</v>
@@ -3483,13 +3483,13 @@
         <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>493</v>
@@ -3520,13 +3520,13 @@
         <v>203</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>496</v>
@@ -3559,13 +3559,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>496</v>
@@ -3596,16 +3596,16 @@
         <v>274</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>239</v>
@@ -3631,13 +3631,13 @@
         <v>174</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>497</v>
@@ -3668,16 +3668,16 @@
         <v>303</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>302</v>
@@ -3703,16 +3703,16 @@
         <v>311</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>309</v>
@@ -3738,13 +3738,13 @@
         <v>175</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>498</v>
@@ -3775,13 +3775,13 @@
         <v>355</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>498</v>
@@ -3812,13 +3812,13 @@
         <v>315</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>498</v>
@@ -3849,13 +3849,13 @@
         <v>334</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>499</v>
@@ -3886,13 +3886,13 @@
         <v>177</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>500</v>
@@ -3923,13 +3923,13 @@
         <v>398</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>494</v>
@@ -3960,13 +3960,13 @@
         <v>455</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>494</v>
@@ -3995,13 +3995,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>490</v>
@@ -4032,13 +4032,13 @@
         <v>325</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>490</v>
@@ -4069,13 +4069,13 @@
         <v>187</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>490</v>
@@ -4106,13 +4106,13 @@
         <v>276</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>490</v>
@@ -4141,13 +4141,13 @@
         <v>189</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>489</v>
@@ -4178,13 +4178,13 @@
         <v>278</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>501</v>
@@ -4213,13 +4213,13 @@
         <v>321</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>501</v>
@@ -4248,13 +4248,13 @@
         <v>169</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>501</v>
@@ -4287,13 +4287,13 @@
         <v>170</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>501</v>
@@ -4326,13 +4326,13 @@
         <v>308</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>496</v>
@@ -4361,13 +4361,13 @@
         <v>291</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>496</v>
@@ -4396,13 +4396,13 @@
         <v>208</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>494</v>
@@ -4433,13 +4433,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>494</v>
@@ -4470,13 +4470,13 @@
         <v>332</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>494</v>
@@ -4507,13 +4507,13 @@
         <v>172</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>494</v>
@@ -4548,13 +4548,13 @@
         <v>180</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>495</v>
@@ -4585,16 +4585,16 @@
         <v>205</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>225</v>
@@ -4622,13 +4622,13 @@
         <v>344</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>490</v>
@@ -4659,13 +4659,13 @@
         <v>199</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>490</v>
@@ -4698,13 +4698,13 @@
         <v>317</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>492</v>
@@ -4733,13 +4733,13 @@
         <v>305</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>492</v>
@@ -4768,13 +4768,13 @@
         <v>314</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>492</v>
@@ -4805,13 +4805,13 @@
         <v>313</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>492</v>
@@ -4842,13 +4842,13 @@
         <v>179</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>492</v>
@@ -4879,13 +4879,13 @@
         <v>204</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>492</v>
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>492</v>
@@ -4955,13 +4955,13 @@
         <v>178</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>492</v>
@@ -4992,13 +4992,13 @@
         <v>181</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>492</v>
@@ -5029,13 +5029,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>492</v>
@@ -5066,13 +5066,13 @@
         <v>448</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>492</v>
@@ -5101,13 +5101,13 @@
         <v>182</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>502</v>
@@ -5140,13 +5140,13 @@
         <v>319</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>501</v>
@@ -5175,13 +5175,13 @@
         <v>209</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>501</v>
@@ -5214,16 +5214,16 @@
         <v>210</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>219</v>
@@ -5253,16 +5253,16 @@
         <v>316</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>356</v>
@@ -5288,16 +5288,16 @@
         <v>456</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>463</v>
@@ -5323,16 +5323,16 @@
         <v>453</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>461</v>
@@ -5358,16 +5358,16 @@
         <v>457</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>464</v>
@@ -5393,16 +5393,16 @@
         <v>194</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>242</v>
@@ -5430,16 +5430,16 @@
         <v>330</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>364</v>
@@ -5467,16 +5467,16 @@
         <v>195</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>243</v>
@@ -5504,16 +5504,16 @@
         <v>190</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>220</v>
@@ -5541,16 +5541,16 @@
         <v>279</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>220</v>
@@ -5576,16 +5576,16 @@
         <v>341</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>288</v>
@@ -5613,16 +5613,16 @@
         <v>283</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>288</v>
@@ -5648,16 +5648,16 @@
         <v>349</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>299</v>
@@ -5685,16 +5685,16 @@
         <v>350</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>299</v>
@@ -5722,16 +5722,16 @@
         <v>280</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>286</v>
@@ -5757,16 +5757,16 @@
         <v>281</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>286</v>
@@ -5792,16 +5792,16 @@
         <v>282</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>286</v>
@@ -5827,16 +5827,16 @@
         <v>324</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>236</v>
@@ -5864,16 +5864,16 @@
         <v>347</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>236</v>
@@ -5901,16 +5901,16 @@
         <v>336</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>222</v>
@@ -5938,16 +5938,16 @@
         <v>337</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>222</v>
@@ -5972,22 +5972,22 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>53</v>
@@ -6007,22 +6007,22 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>53</v>
@@ -6042,22 +6042,22 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>53</v>
@@ -6077,22 +6077,22 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>53</v>
@@ -6112,22 +6112,22 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>53</v>
@@ -6147,22 +6147,22 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>53</v>
@@ -6182,22 +6182,22 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>53</v>
@@ -6220,13 +6220,13 @@
         <v>193</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>499</v>
@@ -6257,13 +6257,13 @@
         <v>318</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>499</v>
@@ -6292,13 +6292,13 @@
         <v>183</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>494</v>
@@ -6329,13 +6329,13 @@
         <v>400</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>494</v>
@@ -6364,13 +6364,13 @@
         <v>404</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>494</v>
@@ -6399,13 +6399,13 @@
         <v>417</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>494</v>
@@ -6434,13 +6434,13 @@
         <v>410</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>494</v>
@@ -6469,13 +6469,13 @@
         <v>401</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>494</v>
@@ -6504,13 +6504,13 @@
         <v>2</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>494</v>
@@ -6541,13 +6541,13 @@
         <v>400</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>494</v>
@@ -6576,13 +6576,13 @@
         <v>414</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>494</v>
@@ -6611,13 +6611,13 @@
         <v>415</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>494</v>
@@ -6646,13 +6646,13 @@
         <v>408</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>494</v>
@@ -6681,13 +6681,13 @@
         <v>404</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>494</v>
@@ -6716,13 +6716,13 @@
         <v>247</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>494</v>
@@ -6755,13 +6755,13 @@
         <v>411</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>494</v>
@@ -6790,13 +6790,13 @@
         <v>412</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>494</v>
@@ -6825,13 +6825,13 @@
         <v>403</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>494</v>
@@ -6860,13 +6860,13 @@
         <v>405</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>494</v>
@@ -6895,13 +6895,13 @@
         <v>406</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>494</v>
@@ -6930,13 +6930,13 @@
         <v>410</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>494</v>
@@ -6965,13 +6965,13 @@
         <v>409</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>494</v>
@@ -7000,13 +7000,13 @@
         <v>399</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>494</v>
@@ -7035,13 +7035,13 @@
         <v>416</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>494</v>
@@ -7070,13 +7070,13 @@
         <v>417</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>494</v>
@@ -7105,13 +7105,13 @@
         <v>211</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>494</v>
@@ -7142,13 +7142,13 @@
         <v>450</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>494</v>
@@ -7177,13 +7177,13 @@
         <v>340</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>494</v>
@@ -7214,13 +7214,13 @@
         <v>348</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>494</v>
@@ -7251,13 +7251,13 @@
         <v>406</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>494</v>
@@ -7286,13 +7286,13 @@
         <v>458</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>494</v>
@@ -7321,13 +7321,13 @@
         <v>454</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>494</v>
@@ -7356,16 +7356,16 @@
         <v>206</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>225</v>
@@ -7393,16 +7393,16 @@
         <v>284</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>225</v>
@@ -7428,13 +7428,13 @@
         <v>185</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>490</v>
@@ -7465,13 +7465,13 @@
         <v>297</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>490</v>
@@ -7500,13 +7500,13 @@
         <v>273</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>490</v>
@@ -7535,13 +7535,13 @@
         <v>290</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>490</v>
@@ -7570,13 +7570,13 @@
         <v>277</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>490</v>
@@ -7605,13 +7605,13 @@
         <v>188</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>490</v>
@@ -7642,13 +7642,13 @@
         <v>326</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>490</v>
@@ -7679,13 +7679,13 @@
         <v>421</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>494</v>
@@ -7714,13 +7714,13 @@
         <v>420</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>494</v>
@@ -7749,13 +7749,13 @@
         <v>425</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>494</v>
@@ -7784,13 +7784,13 @@
         <v>419</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E122" s="23" t="s">
         <v>494</v>
@@ -7819,13 +7819,13 @@
         <v>422</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E123" s="23" t="s">
         <v>494</v>
@@ -7854,13 +7854,13 @@
         <v>427</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E124" s="23" t="s">
         <v>494</v>
@@ -7889,13 +7889,13 @@
         <v>423</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E125" s="23" t="s">
         <v>494</v>
@@ -7924,13 +7924,13 @@
         <v>407</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E126" s="23" t="s">
         <v>494</v>
@@ -7959,13 +7959,13 @@
         <v>430</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>494</v>
@@ -7994,13 +7994,13 @@
         <v>428</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E128" s="23" t="s">
         <v>494</v>
@@ -8029,13 +8029,13 @@
         <v>413</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>494</v>
@@ -8064,13 +8064,13 @@
         <v>426</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>494</v>
@@ -8099,13 +8099,13 @@
         <v>433</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>491</v>
@@ -8134,16 +8134,16 @@
         <v>207</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F132" s="25" t="s">
         <v>237</v>
@@ -8171,13 +8171,13 @@
         <v>176</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>498</v>
@@ -8208,13 +8208,13 @@
         <v>173</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>493</v>
@@ -8245,13 +8245,13 @@
         <v>451</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>491</v>
@@ -8280,13 +8280,13 @@
         <v>171</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>491</v>
@@ -8317,13 +8317,13 @@
         <v>198</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>490</v>
@@ -8354,13 +8354,13 @@
         <v>432</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E138" s="29" t="s">
         <v>491</v>
@@ -8386,16 +8386,16 @@
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>491</v>
@@ -8421,34 +8421,34 @@
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G140" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H140" s="23" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J140" s="23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8456,13 +8456,13 @@
         <v>424</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>509</v>
       </c>
       <c r="E141" s="29" t="s">
         <v>494</v>
@@ -8485,6 +8485,38 @@
       <c r="K141" s="29"/>
       <c r="L141" s="29"/>
       <c r="M141" s="28"/>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M117">
@@ -8569,13 +8601,13 @@
         <v>326</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>490</v>
@@ -8606,13 +8638,13 @@
         <v>421</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>494</v>
@@ -8641,13 +8673,13 @@
         <v>420</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>494</v>
@@ -8676,13 +8708,13 @@
         <v>425</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>494</v>
@@ -8711,13 +8743,13 @@
         <v>419</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>494</v>
@@ -8746,13 +8778,13 @@
         <v>422</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>494</v>
@@ -8781,13 +8813,13 @@
         <v>427</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>494</v>
@@ -8816,13 +8848,13 @@
         <v>423</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>494</v>
@@ -8851,13 +8883,13 @@
         <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>494</v>
@@ -8886,13 +8918,13 @@
         <v>430</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>494</v>
@@ -8921,13 +8953,13 @@
         <v>428</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>494</v>
@@ -8956,13 +8988,13 @@
         <v>413</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>494</v>
@@ -8991,13 +9023,13 @@
         <v>426</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>494</v>
@@ -9026,13 +9058,13 @@
         <v>402</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>494</v>
@@ -9061,13 +9093,13 @@
         <v>424</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>494</v>
@@ -9096,13 +9128,13 @@
         <v>418</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>494</v>
@@ -9131,13 +9163,13 @@
         <v>432</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>494</v>
@@ -9166,13 +9198,13 @@
         <v>433</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>494</v>
@@ -9201,13 +9233,13 @@
         <v>431</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>494</v>
@@ -9236,13 +9268,13 @@
         <v>429</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>494</v>
@@ -9271,13 +9303,13 @@
         <v>207</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>492</v>
@@ -9308,13 +9340,13 @@
         <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>494</v>
@@ -9345,13 +9377,13 @@
         <v>339</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>494</v>
@@ -9382,13 +9414,13 @@
         <v>176</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>498</v>
@@ -9419,13 +9451,13 @@
         <v>338</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>498</v>
@@ -9456,13 +9488,13 @@
         <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>493</v>
@@ -9493,13 +9525,13 @@
         <v>451</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>491</v>
@@ -9528,13 +9560,13 @@
         <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>491</v>
@@ -9565,13 +9597,13 @@
         <v>275</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>499</v>
@@ -9600,16 +9632,16 @@
         <v>329</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>363</v>
@@ -9637,13 +9669,13 @@
         <v>331</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>498</v>
@@ -9674,13 +9706,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>494</v>
@@ -9711,16 +9743,16 @@
         <v>306</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>237</v>
@@ -9746,13 +9778,13 @@
         <v>202</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>489</v>
@@ -9783,16 +9815,16 @@
         <v>310</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>309</v>
@@ -9818,16 +9850,16 @@
         <v>335</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>309</v>
@@ -9855,13 +9887,13 @@
         <v>198</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>490</v>
@@ -10217,7 +10249,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10283,7 +10315,7 @@
         <v>327</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -10317,7 +10349,7 @@
         <v>186</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -10353,12 +10385,12 @@
         <v>353</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>221</v>
@@ -10389,12 +10421,12 @@
         <v>354</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>221</v>
@@ -10425,7 +10457,7 @@
         <v>301</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -10459,12 +10491,12 @@
         <v>351</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>221</v>
@@ -10495,12 +10527,12 @@
         <v>352</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>221</v>
@@ -10531,7 +10563,7 @@
         <v>197</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -10567,7 +10599,7 @@
         <v>251</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -10599,7 +10631,7 @@
         <v>200</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -10633,7 +10665,7 @@
         <v>328</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -10667,7 +10699,7 @@
         <v>342</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -10701,7 +10733,7 @@
         <v>343</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -10735,7 +10767,7 @@
         <v>449</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -10767,7 +10799,7 @@
         <v>322</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -10799,7 +10831,7 @@
         <v>323</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -10833,7 +10865,7 @@
         <v>192</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -10867,7 +10899,7 @@
         <v>345</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -10901,7 +10933,7 @@
         <v>346</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10935,7 +10967,7 @@
         <v>191</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -10969,7 +11001,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -11003,13 +11035,13 @@
         <v>320</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>501</v>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FE520-464D-2F49-94FF-4F5985992EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A51764-C7AA-4E4D-AFC1-DD99C8956523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="2200" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="500" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="564">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1719,6 +1719,15 @@
   </si>
   <si>
     <t>Tubulidentata1</t>
+  </si>
+  <si>
+    <t>IFNL-Mammalia-B</t>
+  </si>
+  <si>
+    <t>gene_name</t>
+  </si>
+  <si>
+    <t>gene_clade</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2534,6 +2543,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -3412,5157 +3430,5584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:M142"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="11"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="11"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>212</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="23"/>
       <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="M5" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="L6" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="J8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="M8" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>398</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G9" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="L9" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="L9" s="23"/>
       <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="I11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="J11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="K11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="L11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="26"/>
       <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="E12" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="K12" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="K12" s="28"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="L13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="23"/>
       <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C14" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="G14" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="I14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="J14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="I16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="J16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="M16" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="N16" s="23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="G17" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="H17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="I17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="J17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="K17" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E18" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="G18" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="J18" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="K18" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="E19" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="G19" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="I19" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="J19" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="K19" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="H20" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="I20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="J20" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="K20" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="G23" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="H23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="I23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="J23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="K23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="F24" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="G24" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="K24" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="F25" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="G25" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="I25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="J25" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="K25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="26"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="F26" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="G26" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="J26" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="K26" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="26"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="K27" s="26"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="26"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="G28" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="I28" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="J28" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="K28" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="K28" s="28"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C29" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="F29" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G29" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="I29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="J29" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="E30" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="F30" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="G30" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="H30" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="I30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="J30" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="K30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="L30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="23"/>
+      <c r="N30" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="G31" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="H31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="I31" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="J31" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="K31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="L31" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="26"/>
       <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="F32" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="G32" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="H32" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="I32" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="J32" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="K32" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="K32" s="26"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="26"/>
+      <c r="N32" s="30"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="E33" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="F33" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="G33" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="H33" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="I33" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="J33" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="K33" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="L33" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="26"/>
       <c r="M33" s="26"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C34" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="E34" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="F34" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="G34" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="H34" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="I34" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="J34" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="K34" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="L34" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="23"/>
       <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>455</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C35" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="G35" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="I35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="J35" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="K35" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="E36" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="F36" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="G36" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="H36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="I36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="J36" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="K36" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="L36" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="L36" s="23"/>
       <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>400</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="E37" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="F37" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="G37" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="H37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="I37" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="J37" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="K37" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>404</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C38" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="E38" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="F38" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="G38" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="H38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="I38" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="J38" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="K38" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>417</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C39" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="E39" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="F39" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="G39" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="H39" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="I39" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="J39" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="K39" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="23"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>410</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C40" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="E40" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="F40" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="G40" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="H40" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="I40" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="J40" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="K40" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>401</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C41" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="E41" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="F41" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="I41" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="J41" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C42" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="E42" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="F42" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="G42" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="H42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="I42" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="J42" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="K42" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="L42" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L42" s="23"/>
       <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>400</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C43" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="E43" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="F43" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="G43" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="H43" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="I43" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="J43" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="K43" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N43" s="23"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>414</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="E44" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="G44" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="H44" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="I44" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="J44" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="K44" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="23"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>415</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C45" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="E45" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="F45" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="G45" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="H45" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="I45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="J45" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="K45" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>408</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C46" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="E46" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="F46" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="G46" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="H46" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="I46" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="J46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="K46" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="23"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>404</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C47" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="E47" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="F47" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="G47" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="H47" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="I47" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="J47" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="K47" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="23"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>247</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C48" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="E48" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="F48" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="G48" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="H48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="J48" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="L48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23" t="s">
+      <c r="M48" s="23"/>
+      <c r="N48" s="23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>411</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="E49" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="F49" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="G49" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="H49" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="I49" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="J49" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="23"/>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>412</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C50" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="E50" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="F50" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="G50" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="H50" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="I50" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="J50" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="K50" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="23"/>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>403</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C51" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="E51" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="F51" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="G51" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="H51" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="I51" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="J51" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="K51" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="23"/>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C52" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="E52" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="F52" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="G52" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="H52" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="I52" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="J52" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="K52" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N52" s="23"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>406</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C53" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="E53" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="F53" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="G53" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="H53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="I53" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="J53" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="K53" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="23"/>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>410</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C54" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="E54" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="F54" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="G54" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="I54" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="23" t="s">
+      <c r="J54" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="K54" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C55" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="F55" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="G55" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="H55" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="I55" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="J55" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="K55" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="23"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C56" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="E56" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="F56" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="G56" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="H56" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="I56" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="J56" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="K56" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
-    </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>416</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C57" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="E57" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="F57" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="G57" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="H57" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="I57" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="J57" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="K57" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>417</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C58" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="E58" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="F58" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="G58" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="H58" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="I58" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="J58" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="K58" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
-    </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C59" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="E59" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="F59" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="G59" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="H59" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="I59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="J59" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="K59" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="L59" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L59" s="23"/>
       <c r="M59" s="23"/>
-    </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N59" s="23"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>450</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C60" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="E60" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="F60" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="G60" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="H60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="I60" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="J60" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="K60" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C61" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="E61" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="F61" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="G61" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="H61" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="I61" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="23" t="s">
+      <c r="J61" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J61" s="23" t="s">
+      <c r="K61" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K61" s="34"/>
       <c r="L61" s="34"/>
-      <c r="M61" s="23" t="s">
+      <c r="M61" s="34"/>
+      <c r="N61" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>348</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C62" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="E62" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="F62" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="G62" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="H62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="I62" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="J62" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J62" s="23" t="s">
+      <c r="K62" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K62" s="34"/>
       <c r="L62" s="34"/>
-      <c r="M62" s="23" t="s">
+      <c r="M62" s="34"/>
+      <c r="N62" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>406</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C63" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="E63" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="F63" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="G63" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="H63" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="I63" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="J63" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="K63" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
-    </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N63" s="23"/>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>458</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C64" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="E64" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="F64" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="G64" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="H64" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="I64" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="J64" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="K64" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
-    </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N64" s="23"/>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>454</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C65" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="E65" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="F65" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="G65" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="H65" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="I65" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I65" s="23" t="s">
+      <c r="J65" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="J65" s="23" t="s">
+      <c r="K65" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K65" s="23"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
-    </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N65" s="23"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C66" s="26" t="s">
+      <c r="B66" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="E66" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="F66" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="G66" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="H66" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="I66" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="J66" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J66" s="26" t="s">
+      <c r="K66" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="K66" s="26"/>
       <c r="L66" s="26"/>
       <c r="M66" s="26"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N66" s="26"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C67" s="26" t="s">
+      <c r="B67" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="E67" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="F67" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="G67" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="H67" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="I67" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I67" s="26" t="s">
+      <c r="J67" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="K67" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K67" s="26"/>
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N67" s="26"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C68" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="E68" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="F68" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="G68" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="H68" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="I68" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="J68" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="23" t="s">
+      <c r="K68" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K68" s="23" t="s">
+      <c r="L68" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L68" s="23"/>
       <c r="M68" s="23"/>
-    </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" s="23"/>
+    </row>
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C69" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="E69" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="F69" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="G69" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="H69" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="I69" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="J69" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J69" s="23" t="s">
+      <c r="K69" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="L69" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L69" s="23"/>
       <c r="M69" s="23"/>
-    </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N69" s="23"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>276</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C70" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="E70" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="F70" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="G70" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="H70" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="I70" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="J70" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="K70" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K70" s="23"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
-    </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="23"/>
+    </row>
+    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C71" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="E71" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="F71" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="G71" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="H71" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="I71" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="J71" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="J71" s="23" t="s">
+      <c r="K71" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="L71" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N71" s="23"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C72" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="E72" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="F72" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="G72" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="H72" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="I72" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="J72" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="K72" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
-    </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N72" s="23"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C73" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="E73" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="F73" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="G73" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="H73" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="I73" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="J73" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="J73" s="23" t="s">
+      <c r="K73" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K73" s="23"/>
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
-    </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N73" s="23"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>290</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C74" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="E74" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="F74" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="G74" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="H74" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="I74" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="J74" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="J74" s="23" t="s">
+      <c r="K74" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K74" s="23"/>
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
-    </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N74" s="23"/>
+    </row>
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C75" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="E75" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="F75" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="G75" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="H75" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="I75" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I75" s="23" t="s">
+      <c r="J75" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J75" s="23" t="s">
+      <c r="K75" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
-    </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N75" s="23"/>
+    </row>
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C76" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="E76" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="F76" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="G76" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="H76" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="I76" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="23" t="s">
+      <c r="J76" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J76" s="23" t="s">
+      <c r="K76" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K76" s="23" t="s">
+      <c r="L76" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="23"/>
       <c r="M76" s="23"/>
-    </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N76" s="23"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C77" s="26" t="s">
+      <c r="B77" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="E77" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="F77" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="G77" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="H77" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="I77" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="26" t="s">
+      <c r="J77" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="J77" s="26" t="s">
+      <c r="K77" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="K77" s="26"/>
       <c r="L77" s="26"/>
-      <c r="M77" s="26" t="s">
+      <c r="M77" s="26"/>
+      <c r="N77" s="26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C78" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="E78" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="F78" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="G78" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="H78" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="I78" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="J78" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="K78" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K78" s="23" t="s">
+      <c r="L78" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L78" s="23"/>
       <c r="M78" s="23"/>
-    </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N78" s="23"/>
+    </row>
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C79" s="26" t="s">
+      <c r="B79" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="E79" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="F79" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="G79" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="H79" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="I79" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I79" s="26" t="s">
+      <c r="J79" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="J79" s="26" t="s">
+      <c r="K79" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="K79" s="26"/>
       <c r="L79" s="26"/>
-      <c r="M79" s="30"/>
-    </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M79" s="26"/>
+      <c r="N79" s="30"/>
+    </row>
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B80" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C80" s="26" t="s">
+      <c r="B80" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="E80" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="F80" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="G80" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="H80" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="I80" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I80" s="26" t="s">
+      <c r="J80" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="J80" s="26" t="s">
+      <c r="K80" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K80" s="26"/>
       <c r="L80" s="26"/>
-      <c r="M80" s="30"/>
-    </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="26"/>
+      <c r="N80" s="30"/>
+    </row>
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C81" s="26" t="s">
+      <c r="B81" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="E81" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="F81" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="G81" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="H81" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H81" s="26" t="s">
+      <c r="I81" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I81" s="26" t="s">
+      <c r="J81" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J81" s="26" t="s">
+      <c r="K81" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K81" s="26"/>
       <c r="L81" s="26"/>
       <c r="M81" s="26"/>
-    </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N81" s="26"/>
+    </row>
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C82" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="E82" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="F82" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="G82" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="H82" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="I82" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="J82" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J82" s="23" t="s">
+      <c r="K82" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="K82" s="23" t="s">
+      <c r="L82" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L82" s="23" t="s">
+      <c r="M82" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="M82" s="23"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C83" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="E83" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="F83" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="G83" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G83" s="23" t="s">
+      <c r="H83" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H83" s="23" t="s">
+      <c r="I83" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I83" s="23" t="s">
+      <c r="J83" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="K83" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="L83" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="23"/>
       <c r="M83" s="23"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N83" s="23"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C84" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="E84" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="F84" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="G84" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="H84" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H84" s="23" t="s">
+      <c r="I84" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="23" t="s">
+      <c r="J84" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="K84" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="K84" s="23"/>
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C85" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="E85" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="F85" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="G85" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="H85" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="I85" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="J85" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="K85" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K85" s="23"/>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
-    </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N85" s="23"/>
+    </row>
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C86" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="E86" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="F86" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F86" s="23" t="s">
+      <c r="G86" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="23" t="s">
+      <c r="H86" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="I86" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I86" s="23" t="s">
+      <c r="J86" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J86" s="23" t="s">
+      <c r="K86" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K86" s="23" t="s">
+      <c r="L86" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L86" s="23"/>
       <c r="M86" s="23"/>
-    </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N86" s="23"/>
+    </row>
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C87" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="E87" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="F87" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="G87" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="G87" s="23" t="s">
+      <c r="H87" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="I87" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="J87" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J87" s="23" t="s">
+      <c r="K87" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K87" s="23" t="s">
+      <c r="L87" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L87" s="23"/>
       <c r="M87" s="23"/>
-    </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N87" s="23"/>
+    </row>
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>355</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C88" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="E88" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="F88" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="G88" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="G88" s="23" t="s">
+      <c r="H88" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="I88" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="J88" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="23" t="s">
+      <c r="K88" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K88" s="23"/>
       <c r="L88" s="23"/>
-      <c r="M88" s="23" t="s">
+      <c r="M88" s="23"/>
+      <c r="N88" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C89" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="E89" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="F89" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="G89" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="H89" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="I89" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="J89" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="K89" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="K89" s="23"/>
       <c r="L89" s="23"/>
-      <c r="M89" s="23">
+      <c r="M89" s="23"/>
+      <c r="N89" s="23">
         <v>21278349</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C90" s="26" t="s">
+      <c r="B90" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="E90" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="F90" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="G90" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="H90" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="I90" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="J90" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J90" s="26" t="s">
+      <c r="K90" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K90" s="26" t="s">
+      <c r="L90" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L90" s="26"/>
       <c r="M90" s="26"/>
-    </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N90" s="26"/>
+    </row>
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C91" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="E91" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="F91" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="G91" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G91" s="23" t="s">
+      <c r="H91" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="I91" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I91" s="23" t="s">
+      <c r="J91" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J91" s="23" t="s">
+      <c r="K91" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K91" s="23" t="s">
+      <c r="L91" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L91" s="23"/>
       <c r="M91" s="23"/>
-    </row>
-    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C92" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="E92" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="F92" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="G92" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="H92" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="I92" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I92" s="23" t="s">
+      <c r="J92" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J92" s="23" t="s">
+      <c r="K92" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K92" s="23" t="s">
+      <c r="L92" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L92" s="23"/>
       <c r="M92" s="23"/>
-    </row>
-    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N92" s="23"/>
+    </row>
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C93" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="E93" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="F93" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="G93" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G93" s="23" t="s">
+      <c r="H93" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="I93" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I93" s="23" t="s">
+      <c r="J93" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J93" s="23" t="s">
+      <c r="K93" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K93" s="23" t="s">
+      <c r="L93" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L93" s="23"/>
       <c r="M93" s="23"/>
-    </row>
-    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N93" s="23"/>
+    </row>
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C94" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="E94" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="F94" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="G94" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="H94" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H94" s="24" t="s">
+      <c r="I94" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I94" s="24" t="s">
+      <c r="J94" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J94" s="24" t="s">
+      <c r="K94" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K94" s="25"/>
       <c r="L94" s="25"/>
-      <c r="M94" s="24"/>
-    </row>
-    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="25"/>
+      <c r="N94" s="24"/>
+    </row>
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>305</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C95" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="E95" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="F95" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="G95" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="H95" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H95" s="24" t="s">
+      <c r="I95" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I95" s="24" t="s">
+      <c r="J95" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J95" s="24" t="s">
+      <c r="K95" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K95" s="25"/>
       <c r="L95" s="25"/>
-      <c r="M95" s="24"/>
-    </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="25"/>
+      <c r="N95" s="24"/>
+    </row>
+    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C96" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="E96" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="F96" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F96" s="24" t="s">
+      <c r="G96" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="H96" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="I96" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I96" s="24" t="s">
+      <c r="J96" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="J96" s="24" t="s">
+      <c r="K96" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="K96" s="25"/>
       <c r="L96" s="25"/>
-      <c r="M96" s="24" t="s">
+      <c r="M96" s="25"/>
+      <c r="N96" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>313</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C97" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="E97" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="F97" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="G97" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="H97" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H97" s="24" t="s">
+      <c r="I97" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I97" s="24" t="s">
+      <c r="J97" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="J97" s="24" t="s">
+      <c r="K97" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K97" s="25"/>
       <c r="L97" s="25"/>
-      <c r="M97" s="24" t="s">
+      <c r="M97" s="25"/>
+      <c r="N97" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C98" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="E98" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="F98" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="G98" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="H98" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H98" s="24" t="s">
+      <c r="I98" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I98" s="24" t="s">
+      <c r="J98" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J98" s="24" t="s">
+      <c r="K98" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K98" s="25" t="s">
+      <c r="L98" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L98" s="25"/>
-      <c r="M98" s="24"/>
-    </row>
-    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="25"/>
+      <c r="N98" s="24"/>
+    </row>
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C99" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="E99" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="F99" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="G99" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="H99" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="I99" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I99" s="24" t="s">
+      <c r="J99" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="J99" s="24" t="s">
+      <c r="K99" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K99" s="25" t="s">
+      <c r="L99" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L99" s="25" t="s">
+      <c r="M99" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="M99" s="24"/>
-    </row>
-    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N99" s="24"/>
+    </row>
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C100" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="E100" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="F100" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F100" s="24" t="s">
+      <c r="G100" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="H100" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="I100" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I100" s="24" t="s">
+      <c r="J100" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J100" s="24" t="s">
+      <c r="K100" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K100" s="25" t="s">
+      <c r="L100" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="L100" s="25"/>
-      <c r="M100" s="24"/>
-    </row>
-    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="25"/>
+      <c r="N100" s="24"/>
+    </row>
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C101" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="E101" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="F101" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="G101" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="H101" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="I101" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I101" s="24" t="s">
+      <c r="J101" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="J101" s="24" t="s">
+      <c r="K101" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="K101" s="25" t="s">
+      <c r="L101" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L101" s="25"/>
-      <c r="M101" s="24"/>
-    </row>
-    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="25"/>
+      <c r="N101" s="24"/>
+    </row>
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C102" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="E102" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E102" s="24" t="s">
+      <c r="F102" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F102" s="24" t="s">
+      <c r="G102" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="G102" s="24" t="s">
+      <c r="H102" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="I102" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="I102" s="24" t="s">
+      <c r="J102" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J102" s="24" t="s">
+      <c r="K102" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K102" s="25" t="s">
+      <c r="L102" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L102" s="25"/>
-      <c r="M102" s="24"/>
-    </row>
-    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="25"/>
+      <c r="N102" s="24"/>
+    </row>
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C103" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="E103" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="F103" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F103" s="24" t="s">
+      <c r="G103" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="G103" s="24" t="s">
+      <c r="H103" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="I103" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I103" s="24" t="s">
+      <c r="J103" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J103" s="24" t="s">
+      <c r="K103" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K103" s="25" t="s">
+      <c r="L103" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L103" s="25"/>
-      <c r="M103" s="24"/>
-    </row>
-    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M103" s="25"/>
+      <c r="N103" s="24"/>
+    </row>
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C104" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="E104" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="F104" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="G104" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="H104" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="I104" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I104" s="24" t="s">
+      <c r="J104" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J104" s="24" t="s">
+      <c r="K104" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K104" s="24"/>
       <c r="L104" s="24"/>
       <c r="M104" s="24"/>
-    </row>
-    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N104" s="24"/>
+    </row>
+    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C105" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="E105" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="F105" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="G105" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="H105" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="I105" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="23" t="s">
+      <c r="J105" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J105" s="23" t="s">
+      <c r="K105" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="K105" s="23" t="s">
+      <c r="L105" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="23" t="s">
+      <c r="M105" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="M105" s="23"/>
-    </row>
-    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N105" s="23"/>
+    </row>
+    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C106" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="E106" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="F106" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="G106" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="H106" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="I106" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I106" s="23" t="s">
+      <c r="J106" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="J106" s="23" t="s">
+      <c r="K106" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="K106" s="23"/>
       <c r="L106" s="23"/>
       <c r="M106" s="23"/>
-    </row>
-    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N106" s="23"/>
+    </row>
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>456</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C107" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="E107" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="F107" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="G107" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="H107" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="I107" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I107" s="23" t="s">
+      <c r="J107" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="J107" s="23" t="s">
+      <c r="K107" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="K107" s="23"/>
       <c r="L107" s="23"/>
       <c r="M107" s="23"/>
-    </row>
-    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N107" s="23"/>
+    </row>
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>453</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C108" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D108" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="E108" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="F108" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="G108" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="H108" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="I108" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I108" s="23" t="s">
+      <c r="J108" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="J108" s="23" t="s">
+      <c r="K108" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="K108" s="23"/>
       <c r="L108" s="23"/>
       <c r="M108" s="23"/>
-    </row>
-    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N108" s="23"/>
+    </row>
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>457</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C109" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="E109" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="F109" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="F109" s="23" t="s">
+      <c r="G109" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="H109" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="I109" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I109" s="23" t="s">
+      <c r="J109" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="J109" s="23" t="s">
+      <c r="K109" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="K109" s="23"/>
       <c r="L109" s="23"/>
       <c r="M109" s="23"/>
-    </row>
-    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N109" s="23"/>
+    </row>
+    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C110" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="E110" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="F110" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F110" s="23" t="s">
+      <c r="G110" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="H110" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="I110" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I110" s="23" t="s">
+      <c r="J110" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J110" s="23" t="s">
+      <c r="K110" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="23"/>
       <c r="L110" s="23"/>
       <c r="M110" s="23"/>
-    </row>
-    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N110" s="23"/>
+    </row>
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C111" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="E111" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="F111" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="H111" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H111" s="23" t="s">
+      <c r="I111" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I111" s="23" t="s">
+      <c r="J111" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J111" s="23" t="s">
+      <c r="K111" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="23" t="s">
+      <c r="L111" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L111" s="23"/>
       <c r="M111" s="23"/>
-    </row>
-    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N111" s="23"/>
+    </row>
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C112" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D112" s="23" t="s">
+      <c r="E112" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="F112" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F112" s="23" t="s">
+      <c r="G112" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="H112" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="I112" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I112" s="23" t="s">
+      <c r="J112" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J112" s="23" t="s">
+      <c r="K112" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="K112" s="23"/>
       <c r="L112" s="23"/>
-      <c r="M112" s="23" t="s">
+      <c r="M112" s="23"/>
+      <c r="N112" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>195</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C113" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="E113" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="F113" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="G113" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="H113" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="I113" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="J113" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="K113" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="L113" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L113" s="23"/>
       <c r="M113" s="23"/>
-    </row>
-    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N113" s="23"/>
+    </row>
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C114" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D114" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D114" s="23" t="s">
+      <c r="E114" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="F114" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F114" s="23" t="s">
+      <c r="G114" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="H114" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="I114" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I114" s="23" t="s">
+      <c r="J114" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J114" s="23" t="s">
+      <c r="K114" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K114" s="23" t="s">
+      <c r="L114" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L114" s="23"/>
       <c r="M114" s="23"/>
-    </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N114" s="23"/>
+    </row>
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C115" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="E115" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="F115" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="G115" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="H115" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="I115" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I115" s="23" t="s">
+      <c r="J115" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J115" s="23" t="s">
+      <c r="K115" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K115" s="23"/>
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
-    </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N115" s="23"/>
+    </row>
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C116" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="E116" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="F116" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F116" s="23" t="s">
+      <c r="G116" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="G116" s="23" t="s">
+      <c r="H116" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H116" s="23" t="s">
+      <c r="I116" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I116" s="23" t="s">
+      <c r="J116" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J116" s="23" t="s">
+      <c r="K116" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K116" s="23"/>
       <c r="L116" s="23"/>
-      <c r="M116" s="23" t="s">
+      <c r="M116" s="23"/>
+      <c r="N116" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C117" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="E117" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="F117" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="G117" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="H117" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="I117" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I117" s="23" t="s">
+      <c r="J117" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J117" s="23" t="s">
+      <c r="K117" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K117" s="23"/>
       <c r="L117" s="23"/>
       <c r="M117" s="23"/>
-    </row>
-    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N117" s="23"/>
+    </row>
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C118" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="D118" s="23" t="s">
+      <c r="E118" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="F118" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="F118" s="23" t="s">
+      <c r="G118" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="H118" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="I118" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I118" s="23" t="s">
+      <c r="J118" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J118" s="23" t="s">
+      <c r="K118" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K118" s="23"/>
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
-    </row>
-    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N118" s="23"/>
+    </row>
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C119" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="E119" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="F119" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="F119" s="23" t="s">
+      <c r="G119" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G119" s="23" t="s">
+      <c r="H119" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="I119" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I119" s="23" t="s">
+      <c r="J119" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J119" s="23" t="s">
+      <c r="K119" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="K119" s="23"/>
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
-    </row>
-    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N119" s="23"/>
+    </row>
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>349</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C120" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D120" s="23" t="s">
+      <c r="E120" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="F120" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F120" s="23" t="s">
+      <c r="G120" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G120" s="23" t="s">
+      <c r="H120" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="I120" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I120" s="23" t="s">
+      <c r="J120" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J120" s="23" t="s">
+      <c r="K120" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="K120" s="23"/>
       <c r="L120" s="23"/>
-      <c r="M120" s="23" t="s">
+      <c r="M120" s="23"/>
+      <c r="N120" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>350</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C121" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="E121" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E121" s="23" t="s">
+      <c r="F121" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F121" s="23" t="s">
+      <c r="G121" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="H121" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="I121" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I121" s="23" t="s">
+      <c r="J121" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J121" s="23" t="s">
+      <c r="K121" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="K121" s="23"/>
       <c r="L121" s="23"/>
-      <c r="M121" s="23" t="s">
+      <c r="M121" s="23"/>
+      <c r="N121" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C122" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="E122" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E122" s="23" t="s">
+      <c r="F122" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F122" s="23" t="s">
+      <c r="G122" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="H122" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H122" s="23" t="s">
+      <c r="I122" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I122" s="23" t="s">
+      <c r="J122" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="K122" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="K122" s="23"/>
       <c r="L122" s="23"/>
       <c r="M122" s="23"/>
-    </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N122" s="23"/>
+    </row>
+    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C123" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="E123" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="F123" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F123" s="23" t="s">
+      <c r="G123" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G123" s="23" t="s">
+      <c r="H123" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H123" s="23" t="s">
+      <c r="I123" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I123" s="23" t="s">
+      <c r="J123" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J123" s="23" t="s">
+      <c r="K123" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="K123" s="23"/>
       <c r="L123" s="23"/>
       <c r="M123" s="23"/>
-    </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N123" s="23"/>
+    </row>
+    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C124" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="E124" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="F124" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="G124" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G124" s="23" t="s">
+      <c r="H124" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H124" s="23" t="s">
+      <c r="I124" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I124" s="23" t="s">
+      <c r="J124" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J124" s="23" t="s">
+      <c r="K124" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="K124" s="23"/>
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
-    </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N124" s="23"/>
+    </row>
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C125" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="E125" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="F125" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="G125" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="H125" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="I125" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I125" s="23" t="s">
+      <c r="J125" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="K125" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K125" s="23"/>
       <c r="L125" s="23"/>
-      <c r="M125" s="23" t="s">
+      <c r="M125" s="23"/>
+      <c r="N125" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C126" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="E126" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="F126" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="F126" s="23" t="s">
+      <c r="G126" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G126" s="23" t="s">
+      <c r="H126" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H126" s="23" t="s">
+      <c r="I126" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I126" s="23" t="s">
+      <c r="J126" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J126" s="23" t="s">
+      <c r="K126" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K126" s="23"/>
       <c r="L126" s="23"/>
-      <c r="M126" s="23" t="s">
+      <c r="M126" s="23"/>
+      <c r="N126" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C127" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D127" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="E127" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="F127" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="G127" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="H127" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="I127" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I127" s="23" t="s">
+      <c r="J127" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J127" s="23" t="s">
+      <c r="K127" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K127" s="23"/>
       <c r="L127" s="23"/>
-      <c r="M127" s="23" t="s">
+      <c r="M127" s="23"/>
+      <c r="N127" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>337</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C128" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="E128" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="F128" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="F128" s="23" t="s">
+      <c r="G128" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G128" s="23" t="s">
+      <c r="H128" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H128" s="23" t="s">
+      <c r="I128" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I128" s="23" t="s">
+      <c r="J128" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J128" s="23" t="s">
+      <c r="K128" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K128" s="23"/>
       <c r="L128" s="23"/>
-      <c r="M128" s="23" t="s">
+      <c r="M128" s="23"/>
+      <c r="N128" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>521</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C129" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D129" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="E129" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="F129" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F129" s="23" t="s">
+      <c r="G129" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G129" s="23" t="s">
+      <c r="H129" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H129" s="23" t="s">
+      <c r="I129" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I129" s="23" t="s">
+      <c r="J129" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J129" s="23" t="s">
+      <c r="K129" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K129" s="23"/>
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
-    </row>
-    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N129" s="23"/>
+    </row>
+    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>522</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C130" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="E130" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E130" s="23" t="s">
+      <c r="F130" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="G130" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G130" s="23" t="s">
+      <c r="H130" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="I130" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I130" s="23" t="s">
+      <c r="J130" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="K130" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K130" s="23"/>
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
-    </row>
-    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N130" s="23"/>
+    </row>
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>523</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C131" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D131" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="E131" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E131" s="23" t="s">
+      <c r="F131" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F131" s="23" t="s">
+      <c r="G131" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G131" s="23" t="s">
+      <c r="H131" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H131" s="23" t="s">
+      <c r="I131" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I131" s="23" t="s">
+      <c r="J131" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J131" s="23" t="s">
+      <c r="K131" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K131" s="23"/>
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
-    </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N131" s="23"/>
+    </row>
+    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>524</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C132" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="E132" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E132" s="23" t="s">
+      <c r="F132" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="G132" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G132" s="23" t="s">
+      <c r="H132" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H132" s="23" t="s">
+      <c r="I132" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I132" s="23" t="s">
+      <c r="J132" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="K132" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K132" s="23"/>
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
-    </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N132" s="23"/>
+    </row>
+    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>525</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C133" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D133" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="E133" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E133" s="23" t="s">
+      <c r="F133" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F133" s="23" t="s">
+      <c r="G133" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G133" s="23" t="s">
+      <c r="H133" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H133" s="23" t="s">
+      <c r="I133" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I133" s="23" t="s">
+      <c r="J133" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J133" s="23" t="s">
+      <c r="K133" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K133" s="23"/>
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
-    </row>
-    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N133" s="23"/>
+    </row>
+    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>526</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C134" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D134" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="E134" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E134" s="23" t="s">
+      <c r="F134" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="G134" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G134" s="23" t="s">
+      <c r="H134" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H134" s="23" t="s">
+      <c r="I134" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I134" s="23" t="s">
+      <c r="J134" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J134" s="23" t="s">
+      <c r="K134" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K134" s="23"/>
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
-    </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N134" s="23"/>
+    </row>
+    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>527</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C135" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D135" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="E135" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="F135" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="F135" s="23" t="s">
+      <c r="G135" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G135" s="23" t="s">
+      <c r="H135" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H135" s="23" t="s">
+      <c r="I135" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I135" s="23" t="s">
+      <c r="J135" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J135" s="23" t="s">
+      <c r="K135" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K135" s="23"/>
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
-    </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N135" s="23"/>
+    </row>
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B136" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C136" s="23" t="s">
+      <c r="B136" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D136" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="E136" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="E136" s="32" t="s">
+      <c r="F136" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="F136" s="32" t="s">
+      <c r="G136" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="G136" s="32" t="s">
+      <c r="H136" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H136" s="32" t="s">
+      <c r="I136" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I136" s="32" t="s">
+      <c r="J136" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J136" s="32" t="s">
+      <c r="K136" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="K136" s="33" t="s">
+      <c r="L136" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="L136" s="33"/>
-      <c r="M136" s="32"/>
-    </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M136" s="33"/>
+      <c r="N136" s="32"/>
+    </row>
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C137" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D137" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="E137" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="F137" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="G137" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="H137" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H137" s="23" t="s">
+      <c r="I137" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I137" s="23" t="s">
+      <c r="J137" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="J137" s="23" t="s">
+      <c r="K137" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K137" s="23"/>
       <c r="L137" s="23"/>
-      <c r="M137" s="23" t="s">
+      <c r="M137" s="23"/>
+      <c r="N137" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C138" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D138" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="E138" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="F138" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="G138" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G138" s="23" t="s">
+      <c r="H138" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H138" s="23" t="s">
+      <c r="I138" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I138" s="23" t="s">
+      <c r="J138" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="K138" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K138" s="23" t="s">
+      <c r="L138" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L138" s="23"/>
       <c r="M138" s="23"/>
-    </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N138" s="23"/>
+    </row>
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>318</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C139" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="E139" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="F139" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="G139" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G139" s="23" t="s">
+      <c r="H139" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H139" s="23" t="s">
+      <c r="I139" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I139" s="23" t="s">
+      <c r="J139" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="J139" s="23" t="s">
+      <c r="K139" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
-    </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N139" s="23"/>
+    </row>
+    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C140" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D140" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="E140" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="F140" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="F140" s="23" t="s">
+      <c r="G140" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G140" s="23" t="s">
+      <c r="H140" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H140" s="23" t="s">
+      <c r="I140" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I140" s="23" t="s">
+      <c r="J140" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J140" s="23" t="s">
+      <c r="K140" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K140" s="23" t="s">
+      <c r="L140" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L140" s="23"/>
       <c r="M140" s="23"/>
-    </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N140" s="23"/>
+    </row>
+    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>284</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C141" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D141" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="E141" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="F141" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="F141" s="23" t="s">
+      <c r="G141" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G141" s="23" t="s">
+      <c r="H141" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H141" s="23" t="s">
+      <c r="I141" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I141" s="23" t="s">
+      <c r="J141" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J141" s="23" t="s">
+      <c r="K141" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K141" s="23"/>
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
-    </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N141" s="23"/>
+    </row>
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C142" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D142" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="E142" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="F142" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="G142" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="G142" s="23" t="s">
+      <c r="H142" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H142" s="23" t="s">
+      <c r="I142" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I142" s="23" t="s">
+      <c r="J142" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J142" s="23" t="s">
+      <c r="K142" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="K142" s="23" t="s">
+      <c r="L142" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L142" s="23" t="s">
+      <c r="M142" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M142">
-    <sortCondition ref="G2:G142"/>
-    <sortCondition ref="C2:C142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N142">
+    <sortCondition ref="H2:H142"/>
+    <sortCondition ref="D2:D142"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D26C0D-D695-834C-98B1-3282BE48DBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A603A06F-AB2B-8F4F-AB04-B4DF72300F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2200" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15640" yWindow="1720" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -3622,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G60" sqref="A1:S141"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>547</v>
@@ -3738,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>57</v>
@@ -3753,17 +3753,17 @@
         <v>96</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>547</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>149</v>
+        <v>366</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>57</v>
@@ -3805,20 +3805,20 @@
         <v>56</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>2</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="S3" s="23" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>547</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>57</v>
@@ -3860,20 +3860,24 @@
         <v>56</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="S4" s="23" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>547</v>
@@ -3884,55 +3888,49 @@
       <c r="D5" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="26">
         <v>1</v>
       </c>
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>248</v>
-      </c>
+      <c r="P5" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>547</v>
@@ -3961,11 +3959,11 @@
       <c r="J6" s="26">
         <v>1</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>1</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>442</v>
+        <v>166</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>57</v>
@@ -3974,10 +3972,10 @@
         <v>56</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>474</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -3985,7 +3983,7 @@
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>547</v>
@@ -4014,11 +4012,11 @@
       <c r="J7" s="26">
         <v>1</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>1</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>57</v>
@@ -4027,10 +4025,10 @@
         <v>56</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
@@ -4038,7 +4036,7 @@
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>547</v>
@@ -4067,11 +4065,11 @@
       <c r="J8" s="26">
         <v>1</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="23">
         <v>1</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="M8" s="26" t="s">
         <v>57</v>
@@ -4080,10 +4078,10 @@
         <v>56</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
@@ -4091,7 +4089,7 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>547</v>
@@ -4120,11 +4118,11 @@
       <c r="J9" s="26">
         <v>1</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="23">
         <v>1</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>57</v>
@@ -4133,10 +4131,10 @@
         <v>56</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
@@ -4144,7 +4142,7 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>547</v>
@@ -4173,11 +4171,11 @@
       <c r="J10" s="26">
         <v>1</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="23">
         <v>1</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="M10" s="26" t="s">
         <v>57</v>
@@ -4186,10 +4184,10 @@
         <v>56</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>160</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
@@ -4197,7 +4195,7 @@
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>547</v>
@@ -4226,11 +4224,11 @@
       <c r="J11" s="26">
         <v>1</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="23">
         <v>1</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M11" s="26" t="s">
         <v>57</v>
@@ -4242,7 +4240,7 @@
         <v>80</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
@@ -4250,7 +4248,7 @@
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>547</v>
@@ -4279,11 +4277,11 @@
       <c r="J12" s="26">
         <v>1</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="23">
         <v>1</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>362</v>
+        <v>439</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>57</v>
@@ -4295,7 +4293,7 @@
         <v>80</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
@@ -4303,7 +4301,7 @@
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>547</v>
@@ -4332,11 +4330,11 @@
       <c r="J13" s="26">
         <v>1</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="23">
         <v>1</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M13" s="26" t="s">
         <v>57</v>
@@ -4348,7 +4346,7 @@
         <v>80</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
@@ -4356,7 +4354,7 @@
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>547</v>
@@ -4385,11 +4383,11 @@
       <c r="J14" s="26">
         <v>1</v>
       </c>
-      <c r="K14" s="26">
-        <v>1</v>
+      <c r="K14" s="23">
+        <v>2</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>57</v>
@@ -4401,15 +4399,15 @@
         <v>80</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>547</v>
@@ -4418,51 +4416,51 @@
         <v>246</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="G15" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="23">
         <v>1</v>
       </c>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="M15" s="26" t="s">
+      <c r="K15" s="23">
+        <v>2</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="O15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>547</v>
@@ -4471,51 +4469,51 @@
         <v>246</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="G16" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="23">
         <v>1</v>
       </c>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="M16" s="26" t="s">
+      <c r="K16" s="23">
+        <v>2</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="30"/>
+      <c r="P16" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>547</v>
@@ -4524,31 +4522,31 @@
         <v>246</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="G17" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="23">
         <v>1</v>
       </c>
-      <c r="K17" s="26">
-        <v>1</v>
+      <c r="K17" s="23">
+        <v>2</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M17" s="23" t="s">
         <v>57</v>
@@ -4557,18 +4555,18 @@
         <v>56</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+        <v>472</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>547</v>
@@ -4598,10 +4596,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>57</v>
@@ -4610,10 +4608,10 @@
         <v>56</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>160</v>
+        <v>485</v>
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
@@ -4621,7 +4619,7 @@
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>547</v>
@@ -4651,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>57</v>
@@ -4666,7 +4664,7 @@
         <v>80</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
@@ -4674,7 +4672,7 @@
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>547</v>
@@ -4704,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>57</v>
@@ -4719,7 +4717,7 @@
         <v>80</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>472</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
@@ -4727,7 +4725,7 @@
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>547</v>
@@ -4757,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>444</v>
+        <v>150</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>57</v>
@@ -4769,10 +4767,10 @@
         <v>56</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>485</v>
+        <v>160</v>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
@@ -4780,7 +4778,7 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>414</v>
+        <v>247</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>547</v>
@@ -4810,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="K22" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>444</v>
+        <v>230</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>57</v>
@@ -4822,18 +4820,22 @@
         <v>56</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q22" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
+      <c r="S22" s="23" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>547</v>
@@ -4863,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>57</v>
@@ -4878,7 +4880,7 @@
         <v>80</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
@@ -4886,7 +4888,7 @@
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>547</v>
@@ -4916,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>57</v>
@@ -4928,10 +4930,10 @@
         <v>56</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
@@ -4939,7 +4941,7 @@
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>547</v>
@@ -4969,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="K25" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>57</v>
@@ -4981,22 +4983,18 @@
         <v>56</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>6</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="23" t="s">
-        <v>396</v>
-      </c>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>547</v>
@@ -5026,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="K26" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>57</v>
@@ -5038,10 +5036,10 @@
         <v>56</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
@@ -5049,7 +5047,7 @@
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>547</v>
@@ -5079,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>57</v>
@@ -5091,10 +5089,10 @@
         <v>56</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
@@ -5102,7 +5100,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>547</v>
@@ -5132,10 +5130,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>166</v>
+        <v>446</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>57</v>
@@ -5144,10 +5142,10 @@
         <v>56</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>163</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
@@ -5155,7 +5153,7 @@
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>547</v>
@@ -5185,10 +5183,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M29" s="23" t="s">
         <v>57</v>
@@ -5197,10 +5195,10 @@
         <v>56</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
@@ -5208,7 +5206,7 @@
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>547</v>
@@ -5238,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>57</v>
@@ -5250,10 +5248,10 @@
         <v>56</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
@@ -5261,7 +5259,7 @@
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>547</v>
@@ -5291,10 +5289,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>57</v>
@@ -5306,7 +5304,7 @@
         <v>80</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Q31" s="23"/>
       <c r="R31" s="23"/>
@@ -5314,7 +5312,7 @@
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>408</v>
+        <v>211</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>547</v>
@@ -5344,10 +5342,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>437</v>
+        <v>228</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>57</v>
@@ -5359,15 +5357,17 @@
         <v>80</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q32" s="23"/>
+        <v>79</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>547</v>
@@ -5397,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M33" s="23" t="s">
         <v>57</v>
@@ -5412,7 +5412,7 @@
         <v>80</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>416</v>
+        <v>340</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>547</v>
@@ -5450,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="M34" s="23" t="s">
         <v>57</v>
@@ -5462,18 +5462,20 @@
         <v>56</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="23" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>547</v>
@@ -5503,10 +5505,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="M35" s="23" t="s">
         <v>57</v>
@@ -5515,20 +5517,20 @@
         <v>56</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="23" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>547</v>
@@ -5558,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M36" s="23" t="s">
         <v>57</v>
@@ -5570,10 +5572,10 @@
         <v>56</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
@@ -5581,7 +5583,7 @@
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>340</v>
+        <v>457</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>547</v>
@@ -5611,10 +5613,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
       <c r="M37" s="23" t="s">
         <v>57</v>
@@ -5623,20 +5625,18 @@
         <v>56</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="23" t="s">
-        <v>312</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>348</v>
+        <v>453</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>547</v>
@@ -5666,10 +5666,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="M38" s="23" t="s">
         <v>57</v>
@@ -5678,20 +5678,18 @@
         <v>56</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="23" t="s">
-        <v>312</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>547</v>
@@ -5702,49 +5700,49 @@
       <c r="D39" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="26">
         <v>1</v>
       </c>
       <c r="K39" s="23">
-        <v>1</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="M39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="M39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N39" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="P39" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
+      <c r="P39" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>547</v>
@@ -5755,49 +5753,49 @@
       <c r="D40" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="26">
         <v>1</v>
       </c>
       <c r="K40" s="23">
-        <v>1</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="M40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="M40" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="P40" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
+      <c r="P40" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>453</v>
+        <v>208</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>547</v>
@@ -5806,13 +5804,13 @@
         <v>246</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>582</v>
@@ -5827,10 +5825,10 @@
         <v>1</v>
       </c>
       <c r="K41" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="M41" s="23" t="s">
         <v>57</v>
@@ -5839,18 +5837,20 @@
         <v>56</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q41" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>547</v>
@@ -5859,13 +5859,13 @@
         <v>246</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>582</v>
@@ -5880,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>151</v>
+        <v>435</v>
       </c>
       <c r="M42" s="26" t="s">
         <v>57</v>
@@ -5892,10 +5892,10 @@
         <v>56</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>547</v>
@@ -5912,13 +5912,13 @@
         <v>246</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>582</v>
@@ -5933,26 +5933,26 @@
         <v>1</v>
       </c>
       <c r="K43" s="26">
-        <v>1</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="M43" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="M43" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P43" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
+      <c r="O43" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="29"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -8496,7 +8496,7 @@
       <c r="H91" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I91" s="32">
+      <c r="I91" s="33">
         <v>6.1</v>
       </c>
       <c r="J91" s="27">

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A603A06F-AB2B-8F4F-AB04-B4DF72300F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75722A2-CC80-284C-961F-6978BCF893BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="1720" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="1200" windowWidth="33480" windowHeight="25340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="623">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1851,9 +1851,6 @@
   </si>
   <si>
     <t>Placental2_Chiroptera-6.1</t>
-  </si>
-  <si>
-    <t>Placental1_Chiroptera-6.1</t>
   </si>
   <si>
     <t>Placental1_Chiroptera-6.2</t>
@@ -3622,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="H91" sqref="A1:S141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8482,13 +8479,13 @@
         <v>246</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="F91" s="31" t="s">
-        <v>501</v>
+      <c r="F91" s="23" t="s">
+        <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
         <v>586</v>
@@ -8503,7 +8500,7 @@
         <v>6</v>
       </c>
       <c r="K91" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" s="32" t="s">
         <v>237</v>
@@ -8537,7 +8534,7 @@
         <v>246</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>534</v>
@@ -8592,7 +8589,7 @@
         <v>246</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>534</v>
@@ -8647,7 +8644,7 @@
         <v>246</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>534</v>
@@ -8702,7 +8699,7 @@
         <v>246</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>534</v>
@@ -8757,7 +8754,7 @@
         <v>246</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>540</v>
@@ -8808,7 +8805,7 @@
         <v>246</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>540</v>
@@ -8861,7 +8858,7 @@
         <v>246</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>540</v>
@@ -8914,7 +8911,7 @@
         <v>246</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>540</v>
@@ -8967,7 +8964,7 @@
         <v>246</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>540</v>
@@ -9020,7 +9017,7 @@
         <v>246</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>540</v>
@@ -9071,7 +9068,7 @@
         <v>246</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>540</v>
@@ -9124,7 +9121,7 @@
         <v>246</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>540</v>
@@ -9175,7 +9172,7 @@
         <v>246</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>541</v>
@@ -9228,7 +9225,7 @@
         <v>246</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>541</v>
@@ -9279,7 +9276,7 @@
         <v>246</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>538</v>
@@ -9332,7 +9329,7 @@
         <v>246</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>538</v>
@@ -9385,7 +9382,7 @@
         <v>246</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>538</v>
@@ -9436,7 +9433,7 @@
         <v>246</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>535</v>
@@ -9491,7 +9488,7 @@
         <v>246</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>535</v>
@@ -9542,7 +9539,7 @@
         <v>246</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>535</v>
@@ -9593,7 +9590,7 @@
         <v>246</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>535</v>
@@ -9644,7 +9641,7 @@
         <v>246</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>535</v>
@@ -9695,7 +9692,7 @@
         <v>246</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>536</v>
@@ -9750,7 +9747,7 @@
         <v>246</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>536</v>
@@ -9803,7 +9800,7 @@
         <v>246</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>536</v>
@@ -9854,7 +9851,7 @@
         <v>246</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>536</v>
@@ -9905,7 +9902,7 @@
         <v>246</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>505</v>
@@ -9958,7 +9955,7 @@
         <v>246</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>532</v>
@@ -10011,7 +10008,7 @@
         <v>246</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>507</v>
@@ -10062,7 +10059,7 @@
         <v>246</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E121" s="24" t="s">
         <v>507</v>
@@ -10113,7 +10110,7 @@
         <v>246</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E122" s="24" t="s">
         <v>507</v>
@@ -10166,7 +10163,7 @@
         <v>246</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>507</v>
@@ -10219,7 +10216,7 @@
         <v>246</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>507</v>
@@ -10272,7 +10269,7 @@
         <v>246</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>507</v>
@@ -10327,7 +10324,7 @@
         <v>246</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>507</v>
@@ -10380,7 +10377,7 @@
         <v>246</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>507</v>
@@ -10433,7 +10430,7 @@
         <v>246</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E128" s="24" t="s">
         <v>507</v>
@@ -10486,7 +10483,7 @@
         <v>246</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E129" s="24" t="s">
         <v>507</v>
@@ -10539,7 +10536,7 @@
         <v>246</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>507</v>
@@ -10590,7 +10587,7 @@
         <v>246</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>508</v>
@@ -10645,7 +10642,7 @@
         <v>246</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E132" s="24" t="s">
         <v>544</v>
@@ -10696,7 +10693,7 @@
         <v>246</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E133" s="24" t="s">
         <v>544</v>
@@ -10747,7 +10744,7 @@
         <v>246</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>542</v>
@@ -10800,7 +10797,7 @@
         <v>246</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E135" s="24" t="s">
         <v>546</v>
@@ -10855,7 +10852,7 @@
         <v>246</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>546</v>
@@ -10910,7 +10907,7 @@
         <v>246</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>545</v>
@@ -10961,7 +10958,7 @@
         <v>246</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>543</v>
@@ -11016,7 +11013,7 @@
         <v>246</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>529</v>
@@ -11069,7 +11066,7 @@
         <v>246</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>539</v>
@@ -11122,7 +11119,7 @@
         <v>246</v>
       </c>
       <c r="D141" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>537</v>
